--- a/Список-2025.xlsx
+++ b/Список-2025.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Обучение\МГТУ\ИБМ3\МоделиДан\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\МГТУ\ИБМ3\МоделиДан\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B078A528-F037-4F36-8C5E-ED772F1103D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{74705BB6-52CD-462E-BA84-C939A40BBA7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{7AA7BF0B-6293-4492-97A0-087519FE72A3}"/>
   </bookViews>
@@ -21,12 +21,12 @@
     <sheet name="Пол" sheetId="3" state="hidden" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlcn.WorksheetConnection_Книга1Список1" hidden="1">Список[]</definedName>
+    <definedName name="_xlcn.WorksheetConnection_Книга1Список" hidden="1">Список[]</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="36" r:id="rId7"/>
-    <pivotCache cacheId="43" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
+    <pivotCache cacheId="1" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -58,7 +58,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Список" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Книга1Список1"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_Книга1Список"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="97">
   <si>
     <t>Атаманова Софья</t>
   </si>
@@ -355,13 +355,16 @@
   </si>
   <si>
     <t>Ожидание сдачи отчёта по лабораторной работе №2</t>
+  </si>
+  <si>
+    <t>Баллы 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -407,6 +410,15 @@
       <b/>
       <sz val="16"/>
       <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -463,7 +475,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -526,20 +538,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -553,21 +573,6 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -586,20 +591,20 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
@@ -616,18 +621,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -635,9 +631,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -650,81 +643,46 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="25">
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
       <fill>
@@ -832,9 +790,6 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFFFFF00"/>
@@ -861,6 +816,13 @@
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1017,7 +979,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8F4EEC27-7A50-462C-9040-AFBF8765893A}" name="Сводная таблица1" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8F4EEC27-7A50-462C-9040-AFBF8765893A}" name="Сводная таблица1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" sortType="descending" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -1134,7 +1096,7 @@
     <dataField name="Число элементов в столбце Имя" fld="1" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="19">
-    <format dxfId="28">
+    <format dxfId="23">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -1143,7 +1105,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="27">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -1152,7 +1114,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="26">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -1161,7 +1123,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="25">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -1170,7 +1132,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="23">
+    <format dxfId="19">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -1179,7 +1141,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="22">
+    <format dxfId="18">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -1188,7 +1150,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="21">
+    <format dxfId="17">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -1197,7 +1159,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="20">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -1206,7 +1168,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="19">
+    <format dxfId="15">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -1215,7 +1177,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="18">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -1224,7 +1186,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="17">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -1233,7 +1195,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="16">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -1242,7 +1204,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="11">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -1251,7 +1213,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="14">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -1260,7 +1222,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="13">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -1269,7 +1231,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="4">
@@ -1281,7 +1243,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="11">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -1290,7 +1252,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="4">
@@ -1302,7 +1264,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="9">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -1343,7 +1305,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CEB05A1D-EF9F-4A36-AE67-F086245519DC}" name="Сводная таблица2" cacheId="43" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CEB05A1D-EF9F-4A36-AE67-F086245519DC}" name="Сводная таблица2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B2:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -1375,7 +1337,7 @@
     <dataField name="Число элементов в столбце Пол" fld="1" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="9"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="24">
+    <format dxfId="4">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -1410,36 +1372,40 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9B7C5EAD-C77A-453B-8729-D544945FA04D}" name="Список" displayName="Список" ref="B4:P32" totalsRowCount="1" totalsRowBorderDxfId="8">
-  <autoFilter ref="B4:P31" xr:uid="{9B7C5EAD-C77A-453B-8729-D544945FA04D}"/>
-  <tableColumns count="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9B7C5EAD-C77A-453B-8729-D544945FA04D}" name="Список" displayName="Список" ref="B4:Q32" totalsRowCount="1" totalsRowBorderDxfId="24">
+  <autoFilter ref="B4:Q31" xr:uid="{9B7C5EAD-C77A-453B-8729-D544945FA04D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:P31">
+    <sortCondition ref="B4:B31"/>
+  </sortState>
+  <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{CE2CA560-4CF7-4157-8882-A770E6F54813}" name="№" totalsRowLabel="ЛР1"/>
     <tableColumn id="2" xr3:uid="{C1941E99-226E-43B6-B6BB-9B3A537694E0}" name="Фамилия, имя"/>
     <tableColumn id="3" xr3:uid="{2E436586-13AA-45AD-BC3D-006EB580B1D0}" name="Имя"/>
     <tableColumn id="4" xr3:uid="{0B7FD963-7740-4607-8E86-605CE7E8BDC3}" name="Пол"/>
     <tableColumn id="9" xr3:uid="{E34E81CE-4B9B-4520-82FB-9E0BA2366445}" name="Вар. ЛР" totalsRowFunction="countNums"/>
-    <tableColumn id="5" xr3:uid="{C3618D91-470F-4237-82D5-D447C63A7BC3}" name="08.сен" totalsRowDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{0DD2E78C-77D9-47C1-890E-3CDE71AA5FAD}" name="22.сен" totalsRowFunction="countNums" totalsRowDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{2079D85D-3BD1-47FE-8933-A645EBC5E6AD}" name="06.окт" totalsRowFunction="countNums" totalsRowDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{12643796-0682-4F39-8A78-84C865399C4A}" name="20.окт" totalsRowFunction="custom" totalsRowDxfId="4">
+    <tableColumn id="5" xr3:uid="{C3618D91-470F-4237-82D5-D447C63A7BC3}" name="08.сен" totalsRowDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{0DD2E78C-77D9-47C1-890E-3CDE71AA5FAD}" name="22.сен" totalsRowFunction="countNums" totalsRowDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{2079D85D-3BD1-47FE-8933-A645EBC5E6AD}" name="06.окт" totalsRowFunction="countNums"/>
+    <tableColumn id="8" xr3:uid="{12643796-0682-4F39-8A78-84C865399C4A}" name="20.окт" totalsRowFunction="custom" totalsRowDxfId="1">
       <totalsRowFormula>COUNTIF(Список[20.окт],1)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{626486CF-73A5-48E7-BA3E-CE269B506857}" name="17.ноя" totalsRowFunction="custom" totalsRowDxfId="3">
+    <tableColumn id="11" xr3:uid="{626486CF-73A5-48E7-BA3E-CE269B506857}" name="17.ноя" totalsRowFunction="custom">
       <totalsRowFormula>COUNTIF(Список[17.ноя],1)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{99AC48D9-7389-402F-B5E5-0F304A775C73}" name="01.дек" totalsRowFunction="custom" totalsRowDxfId="2">
+    <tableColumn id="12" xr3:uid="{99AC48D9-7389-402F-B5E5-0F304A775C73}" name="01.дек" totalsRowFunction="custom">
       <totalsRowFormula>COUNTIF(Список[01.дек],1)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{7C8748DF-CE82-445F-A3F3-C9DE70F2CE24}" name="15.дек" totalsRowFunction="custom" totalsRowDxfId="1">
+    <tableColumn id="13" xr3:uid="{7C8748DF-CE82-445F-A3F3-C9DE70F2CE24}" name="15.дек" totalsRowFunction="custom">
       <totalsRowFormula>COUNTIF(Список[15.дек],1)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{64148C1D-6E39-4F50-9C4F-1BA0C1DDA94E}" name="22.дек" totalsRowFunction="custom" totalsRowDxfId="0">
+    <tableColumn id="14" xr3:uid="{64148C1D-6E39-4F50-9C4F-1BA0C1DDA94E}" name="22.дек" totalsRowFunction="custom">
       <totalsRowFormula>COUNTIF(Список[22.дек],1)</totalsRowFormula>
     </tableColumn>
     <tableColumn id="15" xr3:uid="{EF65407D-70E6-407C-93A8-9D7882B0D503}" name="Встреч">
       <calculatedColumnFormula>COUNTA(Список[[#This Row],[08.сен]:[22.дек]])</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" xr3:uid="{508E45F3-744E-4ED9-8C66-595785AA8AAC}" name="27.окт" totalsRowFunction="countNums"/>
+    <tableColumn id="10" xr3:uid="{216834A9-3BC5-487C-A22B-36A2912E580F}" name="Баллы 1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1754,13 +1720,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="40" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -1771,106 +1737,106 @@
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="35"/>
-      <c r="C4" s="47" t="s">
+      <c r="B4" s="29"/>
+      <c r="C4" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="D4" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="47" t="s">
+      <c r="E4" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="F4" s="47" t="s">
+      <c r="F4" s="36" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="36" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="37">
+      <c r="C5" s="31">
         <f>SUM(Список[[#Totals],[22.сен]:[22.дек]])</f>
-        <v>20</v>
-      </c>
-      <c r="D5" s="37">
+        <v>22</v>
+      </c>
+      <c r="D5" s="31">
         <f>SUM(Список[[#Totals],[22.сен]:[06.окт]])</f>
-        <v>12</v>
-      </c>
-      <c r="E5" s="49">
+        <v>14</v>
+      </c>
+      <c r="E5" s="37">
         <f>C5-D5</f>
         <v>8</v>
       </c>
-      <c r="F5" s="37">
+      <c r="F5" s="31">
         <f>$D$2-C5</f>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="37">
+      <c r="C6" s="31">
         <f>SUM(Список!J33:N33)</f>
-        <v>10</v>
-      </c>
-      <c r="D6" s="37">
+        <v>12</v>
+      </c>
+      <c r="D6" s="31">
         <f>SUM(Список!J33:K33)</f>
-        <v>10</v>
-      </c>
-      <c r="E6" s="49">
+        <v>12</v>
+      </c>
+      <c r="E6" s="37">
         <f>C6-D6</f>
         <v>0</v>
       </c>
-      <c r="F6" s="37">
+      <c r="F6" s="31">
         <f>$D$2-C6</f>
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="37">
+      <c r="C7" s="31">
         <f>SUM(Список!K34:N34)</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="37">
+        <v>2</v>
+      </c>
+      <c r="D7" s="31">
         <f>SUM(Список!K34:M34)</f>
-        <v>0</v>
-      </c>
-      <c r="E7" s="49">
+        <v>2</v>
+      </c>
+      <c r="E7" s="37">
         <f>C7-D7</f>
         <v>0</v>
       </c>
-      <c r="F7" s="37">
+      <c r="F7" s="31">
         <f>$D$2-C7</f>
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="37">
+      <c r="C8" s="31">
         <f>SUM(Список!K35:N35)</f>
         <v>0</v>
       </c>
-      <c r="D8" s="37">
+      <c r="D8" s="31">
         <f>SUM(Список!K35:N35)</f>
         <v>0</v>
       </c>
-      <c r="E8" s="49">
+      <c r="E8" s="37">
         <f>C8-D8</f>
         <v>0</v>
       </c>
-      <c r="F8" s="37">
+      <c r="F8" s="31">
         <f>$D$2-C8</f>
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="29" t="s">
         <v>70</v>
       </c>
       <c r="C10" t="s">
@@ -1918,7 +1884,7 @@
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="34" t="s">
         <v>91</v>
       </c>
       <c r="C15">
@@ -1948,50 +1914,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="39" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="14" t="s">
+      <c r="F2" s="43"/>
+      <c r="G2" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="18" t="s">
+      <c r="H2" s="43"/>
+      <c r="I2" s="12" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="H4" s="30" t="s">
+      <c r="H4" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="I4" s="30" t="s">
+      <c r="I4" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="J4" s="30" t="s">
+      <c r="J4" s="24" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2005,14 +1971,14 @@
       <c r="D5" s="2">
         <v>11</v>
       </c>
-      <c r="E5" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="F5" s="25" t="s">
+      <c r="E5" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="19" t="s">
         <v>77</v>
       </c>
       <c r="G5" s="2"/>
-      <c r="H5" s="26"/>
+      <c r="H5" s="20"/>
       <c r="I5" s="2"/>
       <c r="J5" s="3">
         <v>2</v>
@@ -2028,12 +1994,12 @@
       <c r="D6" s="2">
         <v>11</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="19" t="s">
         <v>77</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="26"/>
+      <c r="H6" s="20"/>
       <c r="I6" s="2"/>
       <c r="J6" s="3">
         <v>1</v>
@@ -2049,16 +2015,16 @@
       <c r="D7" s="2">
         <v>4</v>
       </c>
-      <c r="E7" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="F7" s="27" t="s">
+      <c r="E7" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="G7" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="H7" s="26"/>
+      <c r="H7" s="20"/>
       <c r="I7" s="2">
         <v>3</v>
       </c>
@@ -2073,11 +2039,11 @@
       <c r="C8" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="25"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="19"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="26"/>
+      <c r="H8" s="20"/>
       <c r="I8" s="2"/>
       <c r="J8" s="3">
         <v>0</v>
@@ -2087,20 +2053,20 @@
       <c r="B9" s="1">
         <v>12</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="22" t="s">
         <v>12</v>
       </c>
       <c r="D9" s="2">
         <v>7</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="19" t="s">
         <v>77</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="27" t="s">
+      <c r="G9" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="H9" s="26"/>
+      <c r="H9" s="20"/>
       <c r="I9" s="2">
         <v>4</v>
       </c>
@@ -2118,16 +2084,16 @@
       <c r="D10" s="2">
         <v>4</v>
       </c>
-      <c r="E10" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="F10" s="27" t="s">
+      <c r="E10" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="G10" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="H10" s="26"/>
+      <c r="H10" s="20"/>
       <c r="I10" s="2">
         <v>4</v>
       </c>
@@ -2145,14 +2111,14 @@
       <c r="D11" s="2">
         <v>7</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="19" t="s">
         <v>77</v>
       </c>
       <c r="F11" s="2"/>
-      <c r="G11" s="27" t="s">
+      <c r="G11" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="H11" s="26"/>
+      <c r="H11" s="20"/>
       <c r="I11" s="2"/>
       <c r="J11" s="3">
         <v>2</v>
@@ -2229,50 +2195,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="39" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="14" t="s">
+      <c r="F2" s="43"/>
+      <c r="G2" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="18" t="s">
+      <c r="H2" s="43"/>
+      <c r="I2" s="12" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="8.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="H4" s="30" t="s">
+      <c r="H4" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="I4" s="30" t="s">
+      <c r="I4" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="J4" s="30" t="s">
+      <c r="J4" s="24" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2286,16 +2252,16 @@
       <c r="D5" s="2">
         <v>1</v>
       </c>
-      <c r="E5" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="F5" s="27" t="s">
+      <c r="E5" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="G5" s="25">
-        <v>1</v>
-      </c>
-      <c r="H5" s="31" t="s">
+      <c r="G5" s="19">
+        <v>1</v>
+      </c>
+      <c r="H5" s="25" t="s">
         <v>78</v>
       </c>
       <c r="I5" s="2">
@@ -2315,14 +2281,14 @@
       <c r="D6" s="2">
         <v>18</v>
       </c>
-      <c r="E6" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6" s="25" t="s">
+      <c r="E6" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="19" t="s">
         <v>77</v>
       </c>
       <c r="G6" s="2"/>
-      <c r="H6" s="32">
+      <c r="H6" s="26">
         <v>1</v>
       </c>
       <c r="I6" s="2"/>
@@ -2340,14 +2306,14 @@
       <c r="D7" s="2">
         <v>2</v>
       </c>
-      <c r="E7" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="F7" s="27" t="s">
+      <c r="E7" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="21" t="s">
         <v>78</v>
       </c>
       <c r="G7" s="2"/>
-      <c r="H7" s="32">
+      <c r="H7" s="26">
         <v>1</v>
       </c>
       <c r="I7" s="2">
@@ -2367,14 +2333,14 @@
       <c r="D8" s="2">
         <v>18</v>
       </c>
-      <c r="E8" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="F8" s="25" t="s">
+      <c r="E8" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="19" t="s">
         <v>77</v>
       </c>
       <c r="G8" s="2"/>
-      <c r="H8" s="32">
+      <c r="H8" s="26">
         <v>1</v>
       </c>
       <c r="I8" s="2"/>
@@ -2392,14 +2358,14 @@
       <c r="D9" s="2">
         <v>8</v>
       </c>
-      <c r="E9" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="F9" s="25" t="s">
+      <c r="E9" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="19" t="s">
         <v>77</v>
       </c>
       <c r="G9" s="2"/>
-      <c r="H9" s="32">
+      <c r="H9" s="26">
         <v>1</v>
       </c>
       <c r="I9" s="2"/>
@@ -2417,14 +2383,14 @@
       <c r="D10" s="2">
         <v>8</v>
       </c>
-      <c r="E10" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="F10" s="25" t="s">
+      <c r="E10" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="19" t="s">
         <v>77</v>
       </c>
       <c r="G10" s="2"/>
-      <c r="H10" s="32">
+      <c r="H10" s="26">
         <v>1</v>
       </c>
       <c r="I10" s="2"/>
@@ -2442,16 +2408,16 @@
       <c r="D11" s="2">
         <v>21</v>
       </c>
-      <c r="E11" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="G11" s="27" t="s">
+      <c r="E11" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="H11" s="32">
+      <c r="H11" s="26">
         <v>1</v>
       </c>
       <c r="I11" s="2"/>
@@ -2469,14 +2435,14 @@
       <c r="D12" s="2">
         <v>2</v>
       </c>
-      <c r="E12" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="F12" s="27" t="s">
+      <c r="E12" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="21" t="s">
         <v>78</v>
       </c>
       <c r="G12" s="2"/>
-      <c r="H12" s="32">
+      <c r="H12" s="26">
         <v>1</v>
       </c>
       <c r="I12" s="2">
@@ -2496,14 +2462,14 @@
       <c r="D13" s="2">
         <v>21</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="19" t="s">
         <v>77</v>
       </c>
       <c r="F13" s="2"/>
-      <c r="G13" s="27" t="s">
+      <c r="G13" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="H13" s="32">
+      <c r="H13" s="26">
         <v>1</v>
       </c>
       <c r="I13" s="2">
@@ -2523,16 +2489,16 @@
       <c r="D14" s="2">
         <v>1</v>
       </c>
-      <c r="E14" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="F14" s="27" t="s">
+      <c r="E14" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="G14" s="25">
-        <v>1</v>
-      </c>
-      <c r="H14" s="31" t="s">
+      <c r="G14" s="19">
+        <v>1</v>
+      </c>
+      <c r="H14" s="25" t="s">
         <v>78</v>
       </c>
       <c r="I14" s="2">
@@ -2602,13 +2568,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24C63C8B-AD0A-4AF6-ADB3-C3544067CA87}">
-  <dimension ref="B1:P36"/>
+  <dimension ref="B1:Q36"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="17" ySplit="4" topLeftCell="R16" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="17" ySplit="4" topLeftCell="R10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="R1" sqref="R1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2625,34 +2591,34 @@
     <col min="16" max="16" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="50" t="s">
+    <row r="1" spans="2:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="38" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="2:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G2" s="13" t="s">
+    <row r="2" spans="2:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="H2" s="13"/>
-      <c r="I2" s="14" t="s">
+      <c r="H2" s="43"/>
+      <c r="I2" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="J2" s="15"/>
-      <c r="K2" s="16" t="s">
+      <c r="J2" s="43"/>
+      <c r="K2" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="L2" s="17"/>
-      <c r="M2" s="14" t="s">
+      <c r="L2" s="46"/>
+      <c r="M2" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="N2" s="15"/>
-      <c r="P2" s="18" t="s">
+      <c r="N2" s="43"/>
+      <c r="P2" s="12" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="2:16" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -2668,38 +2634,41 @@
       <c r="F4" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="M4" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="N4" s="10" t="s">
         <v>73</v>
       </c>
       <c r="O4" t="s">
         <v>79</v>
       </c>
-      <c r="P4" s="36" t="s">
+      <c r="P4" s="30" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>1</v>
       </c>
@@ -2715,23 +2684,26 @@
       <c r="F5">
         <v>11</v>
       </c>
-      <c r="G5" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="J5" s="20"/>
+      <c r="G5" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" s="14"/>
       <c r="O5">
         <f>COUNTA(Список[[#This Row],[08.сен]:[22.дек]])</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="41" t="s">
         <v>1</v>
       </c>
       <c r="D6" t="s">
@@ -2743,16 +2715,16 @@
       <c r="F6">
         <v>11</v>
       </c>
-      <c r="G6" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="J6" s="20"/>
+      <c r="G6" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" s="14"/>
       <c r="O6">
         <f>COUNTA(Список[[#This Row],[08.сен]:[22.дек]])</f>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>3</v>
       </c>
@@ -2768,16 +2740,16 @@
       <c r="F7">
         <v>1</v>
       </c>
-      <c r="G7" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="H7" s="22" t="s">
+      <c r="G7" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="I7" s="34">
-        <v>1</v>
-      </c>
-      <c r="J7" s="23" t="s">
+      <c r="I7" s="28">
+        <v>1</v>
+      </c>
+      <c r="J7" s="17" t="s">
         <v>78</v>
       </c>
       <c r="O7">
@@ -2787,8 +2759,11 @@
       <c r="P7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>4</v>
       </c>
@@ -2804,21 +2779,24 @@
       <c r="F8">
         <v>18</v>
       </c>
-      <c r="G8" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="J8" s="24">
+      <c r="G8" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J8" s="18">
         <v>1</v>
       </c>
       <c r="O8">
         <f>COUNTA(Список[[#This Row],[08.сен]:[22.дек]])</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>5</v>
       </c>
@@ -2834,13 +2812,13 @@
       <c r="F9">
         <v>2</v>
       </c>
-      <c r="G9" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="H9" s="22" t="s">
+      <c r="G9" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="J9" s="24">
+      <c r="J9" s="18">
         <v>1</v>
       </c>
       <c r="O9">
@@ -2850,8 +2828,11 @@
       <c r="P9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q9">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>6</v>
       </c>
@@ -2867,24 +2848,30 @@
       <c r="F10">
         <v>3</v>
       </c>
-      <c r="G10" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="H10" s="33">
-        <v>1</v>
-      </c>
-      <c r="J10" s="34">
+      <c r="G10" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" s="27">
+        <v>1</v>
+      </c>
+      <c r="J10" s="28">
         <v>2</v>
+      </c>
+      <c r="K10" s="11">
+        <v>3</v>
       </c>
       <c r="O10">
         <f>COUNTA(Список[[#This Row],[08.сен]:[22.дек]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P10">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q10">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>7</v>
       </c>
@@ -2900,25 +2887,31 @@
       <c r="F11">
         <v>4</v>
       </c>
-      <c r="G11" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="H11" s="22" t="s">
+      <c r="G11" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="I11" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="J11" s="20"/>
+      <c r="I11" s="16">
+        <v>1</v>
+      </c>
+      <c r="J11" s="14"/>
+      <c r="K11" s="16">
+        <v>2</v>
+      </c>
       <c r="O11">
         <f>COUNTA(Список[[#This Row],[08.сен]:[22.дек]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P11">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q11">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>8</v>
       </c>
@@ -2934,16 +2927,16 @@
       <c r="F12">
         <v>15</v>
       </c>
-      <c r="G12" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="H12" s="33">
-        <v>1</v>
-      </c>
-      <c r="I12" s="22" t="s">
+      <c r="G12" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" s="27">
+        <v>1</v>
+      </c>
+      <c r="I12" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="J12" s="34">
+      <c r="J12" s="28">
         <v>2</v>
       </c>
       <c r="O12">
@@ -2953,8 +2946,11 @@
       <c r="P12">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q12">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>9</v>
       </c>
@@ -2967,15 +2963,18 @@
       <c r="E13" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="12"/>
-      <c r="J13" s="20"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="11"/>
+      <c r="J13" s="14"/>
       <c r="O13">
         <f>COUNTA(Список[[#This Row],[08.сен]:[22.дек]])</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>10</v>
       </c>
@@ -2991,13 +2990,13 @@
       <c r="F14">
         <v>6</v>
       </c>
-      <c r="G14" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="I14" s="34">
-        <v>1</v>
-      </c>
-      <c r="J14" s="34">
+      <c r="G14" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="I14" s="28">
+        <v>1</v>
+      </c>
+      <c r="J14" s="28">
         <v>2</v>
       </c>
       <c r="O14">
@@ -3007,8 +3006,11 @@
       <c r="P14">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q14">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>11</v>
       </c>
@@ -3021,14 +3023,14 @@
       <c r="E15" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F15" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="G15" s="12"/>
-      <c r="I15" s="34">
-        <v>1</v>
-      </c>
-      <c r="J15" s="34">
+      <c r="G15" s="11"/>
+      <c r="I15" s="28">
+        <v>1</v>
+      </c>
+      <c r="J15" s="28">
         <v>2</v>
       </c>
       <c r="O15">
@@ -3038,12 +3040,15 @@
       <c r="P15">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>12</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D16" t="s">
@@ -3055,22 +3060,28 @@
       <c r="F16">
         <v>7</v>
       </c>
-      <c r="G16" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="I16" s="22" t="s">
+      <c r="G16" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H16" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="J16" s="20"/>
+      <c r="I16" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="J16" s="14"/>
       <c r="O16">
         <f>COUNTA(Список[[#This Row],[08.сен]:[22.дек]])</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P16">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q16">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>13</v>
       </c>
@@ -3086,16 +3097,16 @@
       <c r="F17">
         <v>6</v>
       </c>
-      <c r="G17" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="I17" s="34">
-        <v>1</v>
-      </c>
-      <c r="J17" s="34">
+      <c r="G17" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="I17" s="28">
+        <v>1</v>
+      </c>
+      <c r="J17" s="28">
         <v>2</v>
       </c>
       <c r="O17">
@@ -3105,8 +3116,11 @@
       <c r="P17">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q17">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>14</v>
       </c>
@@ -3122,21 +3136,24 @@
       <c r="F18">
         <v>18</v>
       </c>
-      <c r="G18" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="J18" s="24">
+      <c r="G18" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J18" s="18">
         <v>1</v>
       </c>
       <c r="O18">
         <f>COUNTA(Список[[#This Row],[08.сен]:[22.дек]])</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q18">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>15</v>
       </c>
@@ -3152,21 +3169,24 @@
       <c r="F19">
         <v>8</v>
       </c>
-      <c r="G19" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="J19" s="24">
+      <c r="G19" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J19" s="18">
         <v>1</v>
       </c>
       <c r="O19">
         <f>COUNTA(Список[[#This Row],[08.сен]:[22.дек]])</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q19">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>16</v>
       </c>
@@ -3182,21 +3202,24 @@
       <c r="F20">
         <v>8</v>
       </c>
-      <c r="G20" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="J20" s="24">
+      <c r="G20" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J20" s="18">
         <v>1</v>
       </c>
       <c r="O20">
         <f>COUNTA(Список[[#This Row],[08.сен]:[22.дек]])</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>17</v>
       </c>
@@ -3212,24 +3235,27 @@
       <c r="F21">
         <v>9</v>
       </c>
-      <c r="G21" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="I21" s="34">
-        <v>1</v>
-      </c>
-      <c r="J21" s="34">
+      <c r="G21" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="I21" s="28">
+        <v>1</v>
+      </c>
+      <c r="J21" s="28">
         <v>2</v>
       </c>
       <c r="O21">
         <f>COUNTA(Список[[#This Row],[08.сен]:[22.дек]])</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q21">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>18</v>
       </c>
@@ -3245,24 +3271,30 @@
       <c r="F22">
         <v>17</v>
       </c>
-      <c r="G22" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="H22" s="22" t="s">
+      <c r="G22" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H22" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="I22" s="34">
-        <v>1</v>
-      </c>
-      <c r="J22" s="34">
+      <c r="I22" s="28">
+        <v>1</v>
+      </c>
+      <c r="J22" s="28">
         <v>2</v>
+      </c>
+      <c r="K22" t="s">
+        <v>77</v>
       </c>
       <c r="O22">
         <f>COUNTA(Список[[#This Row],[08.сен]:[22.дек]])</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="Q22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>19</v>
       </c>
@@ -3278,25 +3310,31 @@
       <c r="F23">
         <v>4</v>
       </c>
-      <c r="G23" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="H23" s="22" t="s">
+      <c r="G23" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H23" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="I23" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="J23" s="20"/>
+      <c r="I23" s="16">
+        <v>1</v>
+      </c>
+      <c r="J23" s="14"/>
+      <c r="K23">
+        <v>2</v>
+      </c>
       <c r="O23">
         <f>COUNTA(Список[[#This Row],[08.сен]:[22.дек]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P23">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q23">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>20</v>
       </c>
@@ -3312,24 +3350,27 @@
       <c r="F24">
         <v>9</v>
       </c>
-      <c r="G24" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="I24" s="34">
-        <v>1</v>
-      </c>
-      <c r="J24" s="34">
+      <c r="G24" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="I24" s="28">
+        <v>1</v>
+      </c>
+      <c r="J24" s="28">
         <v>2</v>
       </c>
       <c r="O24">
         <f>COUNTA(Список[[#This Row],[08.сен]:[22.дек]])</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>21</v>
       </c>
@@ -3345,24 +3386,27 @@
       <c r="F25">
         <v>21</v>
       </c>
-      <c r="G25" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="I25" s="22" t="s">
+      <c r="G25" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="I25" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="J25" s="24">
+      <c r="J25" s="18">
         <v>1</v>
       </c>
       <c r="O25">
         <f>COUNTA(Список[[#This Row],[08.сен]:[22.дек]])</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>22</v>
       </c>
@@ -3378,13 +3422,13 @@
       <c r="F26">
         <v>2</v>
       </c>
-      <c r="G26" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="H26" s="22" t="s">
+      <c r="G26" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H26" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="J26" s="24">
+      <c r="J26" s="18">
         <v>1</v>
       </c>
       <c r="O26">
@@ -3394,69 +3438,78 @@
       <c r="P26">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q26">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D27" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E27" t="s">
         <v>29</v>
       </c>
       <c r="F27">
-        <v>21</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="I27" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="I27" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="J27" s="24">
-        <v>1</v>
-      </c>
+      <c r="J27" s="14"/>
       <c r="O27">
         <f>COUNTA(Список[[#This Row],[08.сен]:[22.дек]])</f>
-        <v>3</v>
-      </c>
-      <c r="P27">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="Q27">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D28" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E28" t="s">
         <v>29</v>
       </c>
       <c r="F28">
-        <v>7</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="I28" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="I28" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="J28" s="20"/>
+      <c r="J28" s="18">
+        <v>1</v>
+      </c>
       <c r="O28">
         <f>COUNTA(Список[[#This Row],[08.сен]:[22.дек]])</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="P28">
+        <v>4</v>
+      </c>
+      <c r="Q28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>25</v>
       </c>
@@ -3472,21 +3525,24 @@
       <c r="F29">
         <v>15</v>
       </c>
-      <c r="G29" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="H29" s="34">
-        <v>1</v>
-      </c>
-      <c r="J29" s="34">
+      <c r="G29" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H29" s="28">
+        <v>1</v>
+      </c>
+      <c r="J29" s="28">
         <v>2</v>
       </c>
       <c r="O29">
         <f>COUNTA(Список[[#This Row],[08.сен]:[22.дек]])</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q29">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>26</v>
       </c>
@@ -3502,24 +3558,30 @@
       <c r="F30">
         <v>3</v>
       </c>
-      <c r="G30" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="H30" s="34">
-        <v>1</v>
-      </c>
-      <c r="J30" s="34">
+      <c r="G30" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H30" s="28">
+        <v>1</v>
+      </c>
+      <c r="J30" s="28">
         <v>2</v>
+      </c>
+      <c r="K30" s="11">
+        <v>3</v>
       </c>
       <c r="O30">
         <f>COUNTA(Список[[#This Row],[08.сен]:[22.дек]])</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P30">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>27</v>
       </c>
@@ -3535,16 +3597,16 @@
       <c r="F31">
         <v>1</v>
       </c>
-      <c r="G31" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="H31" s="22" t="s">
+      <c r="G31" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H31" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="I31" s="34">
-        <v>1</v>
-      </c>
-      <c r="J31" s="23" t="s">
+      <c r="I31" s="28">
+        <v>1</v>
+      </c>
+      <c r="J31" s="17" t="s">
         <v>78</v>
       </c>
       <c r="O31">
@@ -3554,8 +3616,11 @@
       <c r="P31">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="Q31">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>83</v>
       </c>
@@ -3563,32 +3628,32 @@
         <f>SUBTOTAL(102,Список[Вар. ЛР])</f>
         <v>25</v>
       </c>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39">
+      <c r="G32" s="11"/>
+      <c r="H32" s="11">
         <f>SUBTOTAL(102,Список[22.сен])</f>
         <v>4</v>
       </c>
-      <c r="I32" s="40">
+      <c r="I32">
         <f>SUBTOTAL(102,Список[06.окт])</f>
-        <v>8</v>
-      </c>
-      <c r="J32" s="39">
+        <v>10</v>
+      </c>
+      <c r="J32" s="11">
         <f>COUNTIF(Список[20.окт],1)</f>
         <v>8</v>
       </c>
-      <c r="K32" s="40">
+      <c r="K32">
         <f>COUNTIF(Список[17.ноя],1)</f>
         <v>0</v>
       </c>
-      <c r="L32" s="40">
+      <c r="L32">
         <f>COUNTIF(Список[01.дек],1)</f>
         <v>0</v>
       </c>
-      <c r="M32" s="40">
+      <c r="M32">
         <f>COUNTIF(Список[15.дек],1)</f>
         <v>0</v>
       </c>
-      <c r="N32" s="40">
+      <c r="N32">
         <f>COUNTIF(Список[22.дек],1)</f>
         <v>0</v>
       </c>
@@ -3596,35 +3661,36 @@
         <f>SUBTOTAL(102,Список[27.окт])</f>
         <v>14</v>
       </c>
+      <c r="Q32" s="42"/>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="41">
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="33">
         <f>COUNTIF(Список[20.окт],2)</f>
         <v>10</v>
       </c>
-      <c r="K33" s="42">
+      <c r="K33" s="13">
         <f>COUNTIF(Список[17.ноя],2)</f>
-        <v>0</v>
-      </c>
-      <c r="L33" s="42">
+        <v>2</v>
+      </c>
+      <c r="L33" s="13">
         <f>COUNTIF(Список[01.дек],2)</f>
         <v>0</v>
       </c>
-      <c r="M33" s="42">
+      <c r="M33" s="13">
         <f>COUNTIF(Список[15.дек],2)</f>
         <v>0</v>
       </c>
-      <c r="N33" s="42">
+      <c r="N33" s="13">
         <f>COUNTIF(Список[22.дек],2)</f>
         <v>0</v>
       </c>
@@ -3634,30 +3700,30 @@
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B34" s="28" t="s">
+      <c r="B34" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="43"/>
-      <c r="J34" s="44"/>
-      <c r="K34" s="44">
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22">
         <f>COUNTIF(Список[17.ноя],3)</f>
-        <v>0</v>
-      </c>
-      <c r="L34" s="44">
+        <v>2</v>
+      </c>
+      <c r="L34" s="22">
         <f>COUNTIF(Список[01.дек],3)</f>
         <v>0</v>
       </c>
-      <c r="M34" s="44">
+      <c r="M34" s="22">
         <f>COUNTIF(Список[15.дек],3)</f>
         <v>0</v>
       </c>
-      <c r="N34" s="44">
+      <c r="N34" s="22">
         <f>COUNTIF(Список[22.дек],3)</f>
         <v>0</v>
       </c>
@@ -3668,30 +3734,30 @@
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B35" s="28" t="s">
+      <c r="B35" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="44"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="44"/>
-      <c r="K35" s="44">
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22">
         <f>COUNTIF(Список[17.ноя],4)</f>
         <v>0</v>
       </c>
-      <c r="L35" s="44">
+      <c r="L35" s="22">
         <f>COUNTIF(Список[01.дек],4)</f>
         <v>0</v>
       </c>
-      <c r="M35" s="44">
+      <c r="M35" s="22">
         <f>COUNTIF(Список[15.дек],4)</f>
         <v>0</v>
       </c>
-      <c r="N35" s="44">
+      <c r="N35" s="22">
         <f>COUNTIF(Список[22.дек],4)</f>
         <v>0</v>
       </c>
@@ -3714,20 +3780,6 @@
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:N2"/>
   </mergeCells>
-  <conditionalFormatting sqref="P5:P31">
-    <cfRule type="dataBar" priority="4">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{38798A35-A1F8-493B-AB6E-0AB96D564358}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="O5:O33">
     <cfRule type="colorScale" priority="3">
       <colorScale>
@@ -3754,6 +3806,20 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="P5:P31">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{38798A35-A1F8-493B-AB6E-0AB96D564358}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -3761,6 +3827,17 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2EC6AC69-A471-4F88-B4EC-1DCA2B2FF77F}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>O34:O35</xm:sqref>
+        </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{38798A35-A1F8-493B-AB6E-0AB96D564358}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
@@ -3771,17 +3848,6 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>P5:P31</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2EC6AC69-A471-4F88-B4EC-1DCA2B2FF77F}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>O34:O35</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -3823,10 +3889,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4">
         <v>3</v>
       </c>
       <c r="C4">
@@ -3840,42 +3906,42 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9">
         <v>1</v>
       </c>
       <c r="C9">
@@ -3889,34 +3955,34 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13">
         <v>1</v>
       </c>
       <c r="C13">
@@ -3930,42 +3996,42 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18">
         <v>1</v>
       </c>
       <c r="C18">
@@ -3979,18 +4045,18 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20">
         <v>1</v>
       </c>
       <c r="C20">
@@ -4004,26 +4070,26 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23">
         <v>1</v>
       </c>
       <c r="C23">
@@ -4037,10 +4103,10 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24">
         <v>1</v>
       </c>
     </row>
@@ -4048,7 +4114,7 @@
       <c r="A25" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25">
         <v>27</v>
       </c>
     </row>
@@ -4083,7 +4149,7 @@
       <c r="B3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>0.59259259259259256</v>
       </c>
     </row>
@@ -4091,7 +4157,7 @@
       <c r="B4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>0.40740740740740738</v>
       </c>
     </row>
@@ -4099,7 +4165,7 @@
       <c r="B5" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>1</v>
       </c>
     </row>

--- a/Список-2025.xlsx
+++ b/Список-2025.xlsx
@@ -8,25 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\МГТУ\ИБМ3\МоделиДан\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74705BB6-52CD-462E-BA84-C939A40BBA7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DABD9F-119A-45BC-BC43-6FB674871105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{7AA7BF0B-6293-4492-97A0-087519FE72A3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Резюме" sheetId="7" r:id="rId1"/>
-    <sheet name="Долг по ЛР1" sheetId="4" r:id="rId2"/>
-    <sheet name="Жду ЛР2" sheetId="6" r:id="rId3"/>
-    <sheet name="Список" sheetId="1" r:id="rId4"/>
-    <sheet name="Имена" sheetId="2" state="hidden" r:id="rId5"/>
-    <sheet name="Пол" sheetId="3" state="hidden" r:id="rId6"/>
+    <sheet name="По студентам" sheetId="4" r:id="rId2"/>
+    <sheet name="По группам" sheetId="8" r:id="rId3"/>
+    <sheet name="Долги" sheetId="9" r:id="rId4"/>
+    <sheet name="Список" sheetId="1" r:id="rId5"/>
+    <sheet name="Имена" sheetId="2" state="hidden" r:id="rId6"/>
+    <sheet name="Пол" sheetId="3" state="hidden" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlcn.WorksheetConnection_Книга1Список" hidden="1">Список[]</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Долги!$E$3:$E$30</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId7"/>
-    <pivotCache cacheId="1" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
+    <pivotCache cacheId="1" r:id="rId9"/>
+    <pivotCache cacheId="2" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -45,7 +48,7 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{299597D7-0995-4F1E-877E-1B7CB6BCA539}" keepAlive="1" name="ThisWorkbookDataModel" description="Модель данных" type="5" refreshedVersion="8" minRefreshableVersion="5" background="1">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" keepAlive="1" name="ThisWorkbookDataModel" description="Модель данных" type="5" refreshedVersion="6" minRefreshableVersion="5" background="1">
     <dbPr connection="Data Model Connection" command="Model" commandType="1"/>
     <olapPr sendLocale="1" rowDrillCount="1000"/>
     <extLst>
@@ -54,7 +57,7 @@
       </ext>
     </extLst>
   </connection>
-  <connection id="2" xr16:uid="{5AD24858-B6CC-4492-B10A-19DCF94A861A}" name="WorksheetConnection_Книга1!Список" type="102" refreshedVersion="8" minRefreshableVersion="5">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="WorksheetConnection_Книга1!Список" type="102" refreshedVersion="6" minRefreshableVersion="5">
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Список" autoDelete="1">
@@ -67,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="105">
   <si>
     <t>Атаманова Софья</t>
   </si>
@@ -345,26 +348,50 @@
     <t>1-2</t>
   </si>
   <si>
-    <t>Успеваемость по курсу "Модели данных"</t>
-  </si>
-  <si>
     <t>Выполнение практикума по курсу "Модели данных" студентами группы ИБМ3-34Б (2025)</t>
   </si>
   <si>
-    <t>Долги по лабораторной работе №1</t>
-  </si>
-  <si>
-    <t>Ожидание сдачи отчёта по лабораторной работе №2</t>
-  </si>
-  <si>
-    <t>Баллы 1</t>
+    <t>(пусто)</t>
+  </si>
+  <si>
+    <t>Баллы2</t>
+  </si>
+  <si>
+    <t>Баллы1</t>
+  </si>
+  <si>
+    <t>Сдано ЛР</t>
+  </si>
+  <si>
+    <t>Успеваемость на 17.11.2025</t>
+  </si>
+  <si>
+    <t>Итоги успеваемости по курсу "Модели данных"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Баллы 1</t>
+  </si>
+  <si>
+    <t>Группа</t>
+  </si>
+  <si>
+    <t>Долг</t>
+  </si>
+  <si>
+    <t>ЛР2, РК</t>
+  </si>
+  <si>
+    <t>ЛР1-2</t>
+  </si>
+  <si>
+    <t>ЛР1-2, РК</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -424,8 +451,64 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -464,13 +547,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
+        <fgColor theme="8" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="-0.249977111117893"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,19 +582,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -547,15 +635,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -574,7 +669,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -591,22 +686,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -616,24 +696,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -644,14 +721,75 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -661,7 +799,143 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="132">
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -673,6 +947,16 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -682,33 +966,139 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="-0.249977111117893"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF002060"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF002060"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor theme="7" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor theme="7" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
     </dxf>
@@ -721,28 +1111,355 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor theme="5" tint="0.39997558519241921"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="-0.249977111117893"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF002060"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF002060"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor theme="5" tint="0.39997558519241921"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor theme="5" tint="0.39997558519241921"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="9" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="8" tint="-0.249977111117893"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF002060"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF002060"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="7" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <bgColor theme="5" tint="0.39997558519241921"/>
         </patternFill>
       </fill>
@@ -750,79 +1467,42 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.39997558519241921"/>
+          <bgColor theme="5" tint="0.39997558519241921"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.39997558519241921"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.39997558519241921"/>
+          <bgColor theme="9" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.39997558519241921"/>
+          <bgColor theme="5" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.39997558519241921"/>
+          <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -838,7 +1518,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="HP" refreshedDate="45965.696483680556" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{C583A6CF-D594-49FE-9A48-1CB85F8C715D}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Артемьев Валерий Иванович" refreshedDate="45988.54999861111" backgroundQuery="1" createdVersion="8" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF25000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="2">
     <cacheField name="[Список].[Имя].[Имя]" caption="Имя" numFmtId="0" hierarchy="2" level="1">
@@ -866,9 +1546,9 @@
         <s v="Софья"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="[Measures].[Число элементов в столбце Имя]" caption="Число элементов в столбце Имя" numFmtId="0" hierarchy="6" level="32767"/>
+    <cacheField name="[Measures].[Число элементов в столбце Имя]" caption="Число элементов в столбце Имя" numFmtId="0" hierarchy="19" level="32767"/>
   </cacheFields>
-  <cacheHierarchies count="8">
+  <cacheHierarchies count="21">
     <cacheHierarchy uniqueName="[Список].[№]" caption="№" attribute="1" defaultMemberUniqueName="[Список].[№].[All]" allUniqueName="[Список].[№].[All]" dimensionUniqueName="[Список]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Список].[Фамилия, имя]" caption="Фамилия, имя" attribute="1" defaultMemberUniqueName="[Список].[Фамилия, имя].[All]" allUniqueName="[Список].[Фамилия, имя].[All]" dimensionUniqueName="[Список]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Список].[Имя]" caption="Имя" attribute="1" defaultMemberUniqueName="[Список].[Имя].[All]" allUniqueName="[Список].[Имя].[All]" dimensionUniqueName="[Список]" displayFolder="" count="2" memberValueDatatype="130" unbalanced="0">
@@ -878,6 +1558,19 @@
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Список].[Пол]" caption="Пол" attribute="1" defaultMemberUniqueName="[Список].[Пол].[All]" allUniqueName="[Список].[Пол].[All]" dimensionUniqueName="[Список]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Список].[Вар. ЛР]" caption="Вар. ЛР" attribute="1" defaultMemberUniqueName="[Список].[Вар. ЛР].[All]" allUniqueName="[Список].[Вар. ЛР].[All]" dimensionUniqueName="[Список]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Список].[08.сен]" caption="08.сен" attribute="1" defaultMemberUniqueName="[Список].[08.сен].[All]" allUniqueName="[Список].[08.сен].[All]" dimensionUniqueName="[Список]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Список].[22.сен]" caption="22.сен" attribute="1" defaultMemberUniqueName="[Список].[22.сен].[All]" allUniqueName="[Список].[22.сен].[All]" dimensionUniqueName="[Список]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Список].[06.окт]" caption="06.окт" attribute="1" defaultMemberUniqueName="[Список].[06.окт].[All]" allUniqueName="[Список].[06.окт].[All]" dimensionUniqueName="[Список]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Список].[20.окт]" caption="20.окт" attribute="1" defaultMemberUniqueName="[Список].[20.окт].[All]" allUniqueName="[Список].[20.окт].[All]" dimensionUniqueName="[Список]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Список].[17.ноя]" caption="17.ноя" attribute="1" defaultMemberUniqueName="[Список].[17.ноя].[All]" allUniqueName="[Список].[17.ноя].[All]" dimensionUniqueName="[Список]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Список].[01.дек]" caption="01.дек" attribute="1" defaultMemberUniqueName="[Список].[01.дек].[All]" allUniqueName="[Список].[01.дек].[All]" dimensionUniqueName="[Список]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Список].[15.дек]" caption="15.дек" attribute="1" defaultMemberUniqueName="[Список].[15.дек].[All]" allUniqueName="[Список].[15.дек].[All]" dimensionUniqueName="[Список]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Список].[22.дек]" caption="22.дек" attribute="1" defaultMemberUniqueName="[Список].[22.дек].[All]" allUniqueName="[Список].[22.дек].[All]" dimensionUniqueName="[Список]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Список].[Встреч]" caption="Встреч" attribute="1" defaultMemberUniqueName="[Список].[Встреч].[All]" allUniqueName="[Список].[Встреч].[All]" dimensionUniqueName="[Список]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Список].[27.окт]" caption="27.окт" attribute="1" defaultMemberUniqueName="[Список].[27.окт].[All]" allUniqueName="[Список].[27.окт].[All]" dimensionUniqueName="[Список]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Список].[Баллы1]" caption="Баллы1" attribute="1" defaultMemberUniqueName="[Список].[Баллы1].[All]" allUniqueName="[Список].[Баллы1].[All]" dimensionUniqueName="[Список]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Список].[Баллы2]" caption="Баллы2" attribute="1" defaultMemberUniqueName="[Список].[Баллы2].[All]" allUniqueName="[Список].[Баллы2].[All]" dimensionUniqueName="[Список]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Measures].[__XL_Count Список]" caption="__XL_Count Список" measure="1" displayFolder="" measureGroup="Список" count="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Measures].[Число элементов в столбце Имя]" caption="Число элементов в столбце Имя" measure="1" displayFolder="" measureGroup="Список" count="0" oneField="1" hidden="1">
@@ -918,7 +1611,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="HP" refreshedDate="45965.697006481481" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{36696A1F-E0C7-4150-82C9-EF2ADB9E4612}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Артемьев Валерий Иванович" refreshedDate="45988.549999189818" backgroundQuery="1" createdVersion="8" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF28000000}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="2">
     <cacheField name="[Список].[Пол].[Пол]" caption="Пол" numFmtId="0" hierarchy="3" level="1">
@@ -927,9 +1620,9 @@
         <s v="м"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="[Measures].[Число элементов в столбце Пол]" caption="Число элементов в столбце Пол" numFmtId="0" hierarchy="7" level="32767"/>
+    <cacheField name="[Measures].[Число элементов в столбце Пол]" caption="Число элементов в столбце Пол" numFmtId="0" hierarchy="20" level="32767"/>
   </cacheFields>
-  <cacheHierarchies count="8">
+  <cacheHierarchies count="21">
     <cacheHierarchy uniqueName="[Список].[№]" caption="№" attribute="1" defaultMemberUniqueName="[Список].[№].[All]" allUniqueName="[Список].[№].[All]" dimensionUniqueName="[Список]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Список].[Фамилия, имя]" caption="Фамилия, имя" attribute="1" defaultMemberUniqueName="[Список].[Фамилия, имя].[All]" allUniqueName="[Список].[Фамилия, имя].[All]" dimensionUniqueName="[Список]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Список].[Имя]" caption="Имя" attribute="1" defaultMemberUniqueName="[Список].[Имя].[All]" allUniqueName="[Список].[Имя].[All]" dimensionUniqueName="[Список]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
@@ -939,6 +1632,19 @@
         <fieldUsage x="0"/>
       </fieldsUsage>
     </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Список].[Вар. ЛР]" caption="Вар. ЛР" attribute="1" defaultMemberUniqueName="[Список].[Вар. ЛР].[All]" allUniqueName="[Список].[Вар. ЛР].[All]" dimensionUniqueName="[Список]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Список].[08.сен]" caption="08.сен" attribute="1" defaultMemberUniqueName="[Список].[08.сен].[All]" allUniqueName="[Список].[08.сен].[All]" dimensionUniqueName="[Список]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Список].[22.сен]" caption="22.сен" attribute="1" defaultMemberUniqueName="[Список].[22.сен].[All]" allUniqueName="[Список].[22.сен].[All]" dimensionUniqueName="[Список]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Список].[06.окт]" caption="06.окт" attribute="1" defaultMemberUniqueName="[Список].[06.окт].[All]" allUniqueName="[Список].[06.окт].[All]" dimensionUniqueName="[Список]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Список].[20.окт]" caption="20.окт" attribute="1" defaultMemberUniqueName="[Список].[20.окт].[All]" allUniqueName="[Список].[20.окт].[All]" dimensionUniqueName="[Список]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Список].[17.ноя]" caption="17.ноя" attribute="1" defaultMemberUniqueName="[Список].[17.ноя].[All]" allUniqueName="[Список].[17.ноя].[All]" dimensionUniqueName="[Список]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Список].[01.дек]" caption="01.дек" attribute="1" defaultMemberUniqueName="[Список].[01.дек].[All]" allUniqueName="[Список].[01.дек].[All]" dimensionUniqueName="[Список]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Список].[15.дек]" caption="15.дек" attribute="1" defaultMemberUniqueName="[Список].[15.дек].[All]" allUniqueName="[Список].[15.дек].[All]" dimensionUniqueName="[Список]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Список].[22.дек]" caption="22.дек" attribute="1" defaultMemberUniqueName="[Список].[22.дек].[All]" allUniqueName="[Список].[22.дек].[All]" dimensionUniqueName="[Список]" displayFolder="" count="0" memberValueDatatype="130" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Список].[Встреч]" caption="Встреч" attribute="1" defaultMemberUniqueName="[Список].[Встреч].[All]" allUniqueName="[Список].[Встреч].[All]" dimensionUniqueName="[Список]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Список].[27.окт]" caption="27.окт" attribute="1" defaultMemberUniqueName="[Список].[27.окт].[All]" allUniqueName="[Список].[27.окт].[All]" dimensionUniqueName="[Список]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Список].[Баллы1]" caption="Баллы1" attribute="1" defaultMemberUniqueName="[Список].[Баллы1].[All]" allUniqueName="[Список].[Баллы1].[All]" dimensionUniqueName="[Список]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Список].[Баллы2]" caption="Баллы2" attribute="1" defaultMemberUniqueName="[Список].[Баллы2].[All]" allUniqueName="[Список].[Баллы2].[All]" dimensionUniqueName="[Список]" displayFolder="" count="0" memberValueDatatype="20" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Measures].[__XL_Count Список]" caption="__XL_Count Список" measure="1" displayFolder="" measureGroup="Список" count="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Measures].[__No measures defined]" caption="__No measures defined" measure="1" displayFolder="" count="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Measures].[Число элементов в столбце Имя]" caption="Число элементов в столбце Имя" measure="1" displayFolder="" measureGroup="Список" count="0" hidden="1">
@@ -978,8 +1684,2403 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Артемьев Валерий Иванович" refreshedDate="45988.549999305556" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="27" xr:uid="{00000000-000A-0000-FFFF-FFFF2C000000}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Список"/>
+  </cacheSource>
+  <cacheFields count="17">
+    <cacheField name="№" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="27"/>
+    </cacheField>
+    <cacheField name="Фамилия, имя" numFmtId="0">
+      <sharedItems count="27">
+        <s v="Атаманова Софья"/>
+        <s v="Ахадова Диера"/>
+        <s v="Бабченко Елизавета"/>
+        <s v="Волкова Варвара"/>
+        <s v="Гаврилова Анна"/>
+        <s v="Гаммал Дмитрий"/>
+        <s v="Головастикова Полина"/>
+        <s v="Горбунова Вероника"/>
+        <s v="Дебуля Богдан"/>
+        <s v="Коваленко Елизавета"/>
+        <s v="Кольцова Анастасия"/>
+        <s v="Крючков Даниил"/>
+        <s v="Мельникова Полина"/>
+        <s v="Митрохина Анастасия"/>
+        <s v="Михайлова Виктория"/>
+        <s v="Осипов Даниил"/>
+        <s v="Прищенко Артём"/>
+        <s v="Рак Андрей"/>
+        <s v="Рытикова Кирена"/>
+        <s v="Сигорский Александр"/>
+        <s v="Субочев Иван"/>
+        <s v="Уйданов Лев"/>
+        <s v="Хабибулин Данил"/>
+        <s v="Цугель Арсений"/>
+        <s v="Щетинина Анна"/>
+        <s v="Якубович Анна"/>
+        <s v="Янбухтина Мария"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Имя" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Пол" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Вар. ЛР" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="21" count="15">
+        <n v="11"/>
+        <n v="1"/>
+        <n v="18"/>
+        <n v="2"/>
+        <n v="3"/>
+        <n v="4"/>
+        <n v="15"/>
+        <m/>
+        <n v="6"/>
+        <s v="?"/>
+        <n v="7"/>
+        <n v="8"/>
+        <n v="9"/>
+        <n v="17"/>
+        <n v="21"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="08.сен" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="22.сен" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
+    </cacheField>
+    <cacheField name="06.окт" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
+    </cacheField>
+    <cacheField name="20.окт" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="2"/>
+    </cacheField>
+    <cacheField name="17.ноя" numFmtId="0">
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="2" maxValue="3"/>
+    </cacheField>
+    <cacheField name="01.дек" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="15.дек" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="22.дек" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Встреч" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="5"/>
+    </cacheField>
+    <cacheField name="27.окт" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="3" maxValue="5"/>
+    </cacheField>
+    <cacheField name="Баллы1" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="45"/>
+    </cacheField>
+    <cacheField name="Баллы2" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="15" maxValue="15"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="27">
+  <r>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="Софья"/>
+    <s v="ж"/>
+    <x v="0"/>
+    <s v="*"/>
+    <s v="*"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="2"/>
+    <m/>
+    <n v="4"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2"/>
+    <x v="1"/>
+    <s v="Диера"/>
+    <s v="ж"/>
+    <x v="0"/>
+    <s v="*"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="2"/>
+    <s v="Елизавета"/>
+    <s v="ж"/>
+    <x v="1"/>
+    <s v="*"/>
+    <s v="+"/>
+    <n v="1"/>
+    <s v="+"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="29"/>
+    <m/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="3"/>
+    <s v="Варвара"/>
+    <s v="ж"/>
+    <x v="2"/>
+    <s v="*"/>
+    <s v="*"/>
+    <m/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <m/>
+    <n v="15"/>
+    <m/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="4"/>
+    <s v="Анна"/>
+    <s v="ж"/>
+    <x v="3"/>
+    <s v="*"/>
+    <s v="+"/>
+    <m/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="27"/>
+    <m/>
+  </r>
+  <r>
+    <n v="6"/>
+    <x v="5"/>
+    <s v="Дмитрий"/>
+    <s v="м"/>
+    <x v="4"/>
+    <s v="*"/>
+    <n v="1"/>
+    <m/>
+    <n v="2"/>
+    <n v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="4"/>
+    <n v="5"/>
+    <n v="45"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <x v="6"/>
+    <s v="Полина"/>
+    <s v="ж"/>
+    <x v="5"/>
+    <s v="*"/>
+    <s v="+"/>
+    <n v="1"/>
+    <m/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="39"/>
+    <m/>
+  </r>
+  <r>
+    <n v="8"/>
+    <x v="7"/>
+    <s v="Вероника"/>
+    <s v="ж"/>
+    <x v="6"/>
+    <s v="*"/>
+    <n v="1"/>
+    <s v="+"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="4"/>
+    <n v="5"/>
+    <n v="45"/>
+    <m/>
+  </r>
+  <r>
+    <n v="9"/>
+    <x v="8"/>
+    <s v="Богдан"/>
+    <s v="м"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="0"/>
+    <m/>
+    <n v="0"/>
+    <m/>
+  </r>
+  <r>
+    <n v="10"/>
+    <x v="9"/>
+    <s v="Елизавета"/>
+    <s v="ж"/>
+    <x v="8"/>
+    <s v="*"/>
+    <m/>
+    <n v="1"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="43"/>
+    <m/>
+  </r>
+  <r>
+    <n v="11"/>
+    <x v="10"/>
+    <s v="Анастасия"/>
+    <s v="ж"/>
+    <x v="9"/>
+    <m/>
+    <m/>
+    <n v="1"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="2"/>
+    <n v="5"/>
+    <n v="45"/>
+    <m/>
+  </r>
+  <r>
+    <n v="12"/>
+    <x v="11"/>
+    <s v="Даниил"/>
+    <s v="м"/>
+    <x v="10"/>
+    <s v="*"/>
+    <s v="+"/>
+    <s v="+"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="24"/>
+    <m/>
+  </r>
+  <r>
+    <n v="13"/>
+    <x v="12"/>
+    <s v="Полина"/>
+    <s v="ж"/>
+    <x v="8"/>
+    <s v="*"/>
+    <s v="*"/>
+    <n v="1"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="43"/>
+    <m/>
+  </r>
+  <r>
+    <n v="14"/>
+    <x v="13"/>
+    <s v="Анастасия"/>
+    <s v="ж"/>
+    <x v="2"/>
+    <s v="*"/>
+    <s v="*"/>
+    <m/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <m/>
+    <n v="15"/>
+    <m/>
+  </r>
+  <r>
+    <n v="15"/>
+    <x v="14"/>
+    <s v="Виктория"/>
+    <s v="ж"/>
+    <x v="11"/>
+    <s v="*"/>
+    <s v="*"/>
+    <m/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <m/>
+    <n v="15"/>
+    <m/>
+  </r>
+  <r>
+    <n v="16"/>
+    <x v="15"/>
+    <s v="Даниил"/>
+    <s v="м"/>
+    <x v="11"/>
+    <s v="*"/>
+    <s v="*"/>
+    <m/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <m/>
+    <n v="15"/>
+    <m/>
+  </r>
+  <r>
+    <n v="17"/>
+    <x v="16"/>
+    <s v="Артём"/>
+    <s v="м"/>
+    <x v="12"/>
+    <s v="*"/>
+    <s v="*"/>
+    <n v="1"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="4"/>
+    <m/>
+    <n v="30"/>
+    <m/>
+  </r>
+  <r>
+    <n v="18"/>
+    <x v="17"/>
+    <s v="Андрей"/>
+    <s v="м"/>
+    <x v="13"/>
+    <s v="*"/>
+    <s v="+"/>
+    <n v="1"/>
+    <n v="2"/>
+    <s v="*"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="5"/>
+    <n v="4"/>
+    <n v="44"/>
+    <m/>
+  </r>
+  <r>
+    <n v="19"/>
+    <x v="18"/>
+    <s v="Кирена"/>
+    <s v="ж"/>
+    <x v="5"/>
+    <s v="*"/>
+    <s v="+"/>
+    <n v="1"/>
+    <m/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="42"/>
+    <m/>
+  </r>
+  <r>
+    <n v="20"/>
+    <x v="19"/>
+    <s v="Александр"/>
+    <s v="м"/>
+    <x v="12"/>
+    <s v="*"/>
+    <s v="*"/>
+    <n v="1"/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="4"/>
+    <n v="5"/>
+    <n v="45"/>
+    <m/>
+  </r>
+  <r>
+    <n v="21"/>
+    <x v="20"/>
+    <s v="Иван"/>
+    <s v="м"/>
+    <x v="14"/>
+    <s v="*"/>
+    <s v="*"/>
+    <s v="+"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="4"/>
+    <m/>
+    <n v="15"/>
+    <m/>
+  </r>
+  <r>
+    <n v="22"/>
+    <x v="21"/>
+    <s v="Лев"/>
+    <s v="м"/>
+    <x v="3"/>
+    <s v="*"/>
+    <s v="+"/>
+    <m/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <n v="5"/>
+    <n v="30"/>
+    <m/>
+  </r>
+  <r>
+    <n v="23"/>
+    <x v="22"/>
+    <s v="Данил"/>
+    <s v="м"/>
+    <x v="10"/>
+    <s v="*"/>
+    <m/>
+    <s v="+"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="2"/>
+    <m/>
+    <n v="7"/>
+    <m/>
+  </r>
+  <r>
+    <n v="24"/>
+    <x v="23"/>
+    <s v="Арсений"/>
+    <s v="м"/>
+    <x v="14"/>
+    <s v="*"/>
+    <m/>
+    <s v="+"/>
+    <n v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="27"/>
+    <m/>
+  </r>
+  <r>
+    <n v="25"/>
+    <x v="24"/>
+    <s v="Анна"/>
+    <s v="ж"/>
+    <x v="6"/>
+    <s v="*"/>
+    <n v="1"/>
+    <m/>
+    <n v="2"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="3"/>
+    <m/>
+    <n v="30"/>
+    <m/>
+  </r>
+  <r>
+    <n v="26"/>
+    <x v="25"/>
+    <s v="Анна"/>
+    <s v="ж"/>
+    <x v="4"/>
+    <s v="*"/>
+    <n v="1"/>
+    <m/>
+    <n v="2"/>
+    <n v="3"/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="4"/>
+    <n v="5"/>
+    <n v="45"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <n v="27"/>
+    <x v="26"/>
+    <s v="Мария"/>
+    <s v="ж"/>
+    <x v="1"/>
+    <s v="*"/>
+    <s v="+"/>
+    <n v="1"/>
+    <s v="+"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="32"/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8F4EEC27-7A50-462C-9040-AFBF8765893A}" name="Сводная таблица1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="Сводная таблица1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="B3:D30" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="17">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="28">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="27">
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name=" Баллы 1" fld="15" baseField="1" baseItem="0"/>
+    <dataField name="РК" fld="14" baseField="1" baseItem="4"/>
+  </dataFields>
+  <formats count="25">
+    <format dxfId="131">
+      <pivotArea dataOnly="0" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="2">
+            <x v="1"/>
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="130">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="2">
+            <x v="1"/>
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="129">
+      <pivotArea dataOnly="0" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="2">
+            <x v="0"/>
+            <x v="22"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="128">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="10">
+            <x v="5"/>
+            <x v="6"/>
+            <x v="7"/>
+            <x v="9"/>
+            <x v="10"/>
+            <x v="12"/>
+            <x v="17"/>
+            <x v="18"/>
+            <x v="19"/>
+            <x v="25"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="127">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="10">
+            <x v="5"/>
+            <x v="6"/>
+            <x v="7"/>
+            <x v="9"/>
+            <x v="10"/>
+            <x v="12"/>
+            <x v="17"/>
+            <x v="18"/>
+            <x v="19"/>
+            <x v="25"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="126">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="5">
+            <x v="3"/>
+            <x v="13"/>
+            <x v="14"/>
+            <x v="15"/>
+            <x v="20"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="125">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="5">
+            <x v="3"/>
+            <x v="13"/>
+            <x v="14"/>
+            <x v="15"/>
+            <x v="20"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="124">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="8">
+            <x v="2"/>
+            <x v="4"/>
+            <x v="11"/>
+            <x v="16"/>
+            <x v="21"/>
+            <x v="23"/>
+            <x v="24"/>
+            <x v="26"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="123">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="8">
+            <x v="2"/>
+            <x v="4"/>
+            <x v="11"/>
+            <x v="16"/>
+            <x v="21"/>
+            <x v="23"/>
+            <x v="24"/>
+            <x v="26"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="122">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="121">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="120">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="119">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="118">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="117">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="116">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="2">
+            <x v="16"/>
+            <x v="24"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="115">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1">
+            <x v="11"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="114">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="7">
+            <x v="0"/>
+            <x v="3"/>
+            <x v="13"/>
+            <x v="14"/>
+            <x v="15"/>
+            <x v="20"/>
+            <x v="22"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="113">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="2">
+            <x v="16"/>
+            <x v="24"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="112">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="7">
+            <x v="0"/>
+            <x v="3"/>
+            <x v="13"/>
+            <x v="14"/>
+            <x v="15"/>
+            <x v="20"/>
+            <x v="22"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="111">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="9">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="3"/>
+            <x v="8"/>
+            <x v="13"/>
+            <x v="14"/>
+            <x v="15"/>
+            <x v="20"/>
+            <x v="22"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="110">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="2">
+            <x v="16"/>
+            <x v="24"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="109">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="2">
+            <x v="16"/>
+            <x v="24"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="108">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="5">
+            <x v="3"/>
+            <x v="13"/>
+            <x v="14"/>
+            <x v="15"/>
+            <x v="20"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="107">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="Сводная таблица2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="B3:E30" firstHeaderRow="0" firstDataRow="1" firstDataCol="2"/>
+  <pivotFields count="17">
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="descending">
+      <items count="28">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField name="Группа" axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="15">
+        <item x="1"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="8"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="0"/>
+        <item x="6"/>
+        <item x="13"/>
+        <item x="2"/>
+        <item x="14"/>
+        <item x="9"/>
+        <item x="7"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="4"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="27">
+    <i>
+      <x/>
+      <x v="26"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x v="21"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x v="25"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="3"/>
+      <x v="18"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="4"/>
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="5"/>
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="6"/>
+      <x v="15"/>
+    </i>
+    <i r="1">
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="7"/>
+      <x v="19"/>
+    </i>
+    <i r="1">
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="8"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="9"/>
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="10"/>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="11"/>
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="12"/>
+      <x v="23"/>
+    </i>
+    <i r="1">
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="13"/>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="14"/>
+      <x v="8"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name=" Баллы 1" fld="15" baseField="1" baseItem="0"/>
+    <dataField name="РК" fld="14" baseField="1" baseItem="4"/>
+  </dataFields>
+  <formats count="48">
+    <format dxfId="106">
+      <pivotArea dataOnly="0" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="2">
+            <x v="1"/>
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="105">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="2">
+            <x v="1"/>
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="104">
+      <pivotArea dataOnly="0" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="2">
+            <x v="0"/>
+            <x v="22"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="103">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="10">
+            <x v="5"/>
+            <x v="6"/>
+            <x v="7"/>
+            <x v="9"/>
+            <x v="10"/>
+            <x v="12"/>
+            <x v="17"/>
+            <x v="18"/>
+            <x v="19"/>
+            <x v="25"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="102">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="10">
+            <x v="5"/>
+            <x v="6"/>
+            <x v="7"/>
+            <x v="9"/>
+            <x v="10"/>
+            <x v="12"/>
+            <x v="17"/>
+            <x v="18"/>
+            <x v="19"/>
+            <x v="25"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="101">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="5">
+            <x v="3"/>
+            <x v="13"/>
+            <x v="14"/>
+            <x v="15"/>
+            <x v="20"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="100">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="5">
+            <x v="3"/>
+            <x v="13"/>
+            <x v="14"/>
+            <x v="15"/>
+            <x v="20"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="99">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="8">
+            <x v="2"/>
+            <x v="4"/>
+            <x v="11"/>
+            <x v="16"/>
+            <x v="21"/>
+            <x v="23"/>
+            <x v="24"/>
+            <x v="26"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="98">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="8">
+            <x v="2"/>
+            <x v="4"/>
+            <x v="11"/>
+            <x v="16"/>
+            <x v="21"/>
+            <x v="23"/>
+            <x v="24"/>
+            <x v="26"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="97">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="96">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="95">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="94">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="93">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="92">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="91">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="2">
+            <x v="16"/>
+            <x v="24"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="90">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1">
+            <x v="11"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="89">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="7">
+            <x v="0"/>
+            <x v="3"/>
+            <x v="13"/>
+            <x v="14"/>
+            <x v="15"/>
+            <x v="20"/>
+            <x v="22"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="88">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="2">
+            <x v="16"/>
+            <x v="24"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="87">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="7">
+            <x v="0"/>
+            <x v="3"/>
+            <x v="13"/>
+            <x v="14"/>
+            <x v="15"/>
+            <x v="20"/>
+            <x v="22"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="86">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="9">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="3"/>
+            <x v="8"/>
+            <x v="13"/>
+            <x v="14"/>
+            <x v="15"/>
+            <x v="20"/>
+            <x v="22"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="85">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="2">
+            <x v="16"/>
+            <x v="24"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="84">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="2">
+            <x v="16"/>
+            <x v="24"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="83">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="5">
+            <x v="3"/>
+            <x v="13"/>
+            <x v="14"/>
+            <x v="15"/>
+            <x v="20"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="82">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="81">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="80">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="79">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="78">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="77">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="76">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="75">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="74">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="2">
+            <x v="2"/>
+            <x v="26"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="73">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="2">
+            <x v="4"/>
+            <x v="21"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="72">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="2">
+            <x v="5"/>
+            <x v="25"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="71">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="2">
+            <x v="6"/>
+            <x v="18"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="70">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="2">
+            <x v="9"/>
+            <x v="12"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="69">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="2">
+            <x v="11"/>
+            <x v="22"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="68">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="2">
+            <x v="14"/>
+            <x v="15"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="67">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="2">
+            <x v="16"/>
+            <x v="19"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="66">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="2">
+            <x v="0"/>
+            <x v="1"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="65">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="2">
+            <x v="7"/>
+            <x v="24"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="64">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1">
+            <x v="17"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="63">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="2">
+            <x v="3"/>
+            <x v="13"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="11"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="62">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="2">
+            <x v="20"/>
+            <x v="23"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="12"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="61">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1">
+            <x v="10"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="13"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="60">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="1" count="1">
+            <x v="8"/>
+          </reference>
+          <reference field="4" count="1" selected="0">
+            <x v="14"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="59">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <conditionalFormats count="1">
+    <conditionalFormat priority="1">
+      <pivotAreas count="1">
+        <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+  </conditionalFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000002000000}" name="Сводная таблица3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" showDrill="0" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="B3:D30" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="17">
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="descending">
+      <items count="28">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField name="Группа" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="27">
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name=" Баллы 1" fld="15" baseField="1" baseItem="0"/>
+    <dataField name="РК" fld="14" baseField="1" baseItem="4"/>
+  </dataFields>
+  <formats count="33">
+    <format dxfId="58">
+      <pivotArea dataOnly="0" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="2">
+            <x v="1"/>
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="57">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="2">
+            <x v="1"/>
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="56">
+      <pivotArea dataOnly="0" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="2">
+            <x v="0"/>
+            <x v="22"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="55">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="10">
+            <x v="5"/>
+            <x v="6"/>
+            <x v="7"/>
+            <x v="9"/>
+            <x v="10"/>
+            <x v="12"/>
+            <x v="17"/>
+            <x v="18"/>
+            <x v="19"/>
+            <x v="25"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="54">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="10">
+            <x v="5"/>
+            <x v="6"/>
+            <x v="7"/>
+            <x v="9"/>
+            <x v="10"/>
+            <x v="12"/>
+            <x v="17"/>
+            <x v="18"/>
+            <x v="19"/>
+            <x v="25"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="53">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="5">
+            <x v="3"/>
+            <x v="13"/>
+            <x v="14"/>
+            <x v="15"/>
+            <x v="20"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="52">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="5">
+            <x v="3"/>
+            <x v="13"/>
+            <x v="14"/>
+            <x v="15"/>
+            <x v="20"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="51">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="8">
+            <x v="2"/>
+            <x v="4"/>
+            <x v="11"/>
+            <x v="16"/>
+            <x v="21"/>
+            <x v="23"/>
+            <x v="24"/>
+            <x v="26"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="50">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="8">
+            <x v="2"/>
+            <x v="4"/>
+            <x v="11"/>
+            <x v="16"/>
+            <x v="21"/>
+            <x v="23"/>
+            <x v="24"/>
+            <x v="26"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="49">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="48">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="47">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="46">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="45">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="44">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="43">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="2">
+            <x v="16"/>
+            <x v="24"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="42">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1">
+            <x v="11"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="41">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="7">
+            <x v="0"/>
+            <x v="3"/>
+            <x v="13"/>
+            <x v="14"/>
+            <x v="15"/>
+            <x v="20"/>
+            <x v="22"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="40">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="2">
+            <x v="16"/>
+            <x v="24"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="39">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="7">
+            <x v="0"/>
+            <x v="3"/>
+            <x v="13"/>
+            <x v="14"/>
+            <x v="15"/>
+            <x v="20"/>
+            <x v="22"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="38">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="9">
+            <x v="0"/>
+            <x v="1"/>
+            <x v="3"/>
+            <x v="8"/>
+            <x v="13"/>
+            <x v="14"/>
+            <x v="15"/>
+            <x v="20"/>
+            <x v="22"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="37">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="2">
+            <x v="16"/>
+            <x v="24"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="36">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="2">
+            <x v="16"/>
+            <x v="24"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="35">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="5">
+            <x v="3"/>
+            <x v="13"/>
+            <x v="14"/>
+            <x v="15"/>
+            <x v="20"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="34">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="33">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="32">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="31">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="30">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="29">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="28">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="27">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="26">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="1" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <conditionalFormats count="1">
+    <conditionalFormat priority="3">
+      <pivotAreas count="1">
+        <pivotArea type="data" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+  </conditionalFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000003000000}" name="Сводная таблица1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B25" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" sortType="descending" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -1096,7 +4197,7 @@
     <dataField name="Число элементов в столбце Имя" fld="1" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="19">
-    <format dxfId="23">
+    <format dxfId="19">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -1105,7 +4206,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="22">
+    <format dxfId="18">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -1114,7 +4215,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="21">
+    <format dxfId="17">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -1123,7 +4224,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="20">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -1132,7 +4233,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="19">
+    <format dxfId="15">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -1141,7 +4242,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="18">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -1150,7 +4251,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="17">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -1159,7 +4260,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="16">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -1168,7 +4269,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="11">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -1177,7 +4278,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="14">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -1186,7 +4287,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="13">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -1195,7 +4296,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -1204,7 +4305,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="11">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -1213,7 +4314,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="6">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -1222,7 +4323,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="9">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -1231,7 +4332,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="8">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="4">
@@ -1243,7 +4344,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="7">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -1252,7 +4353,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="4">
@@ -1264,7 +4365,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="1">
@@ -1274,7 +4375,20 @@
       </pivotArea>
     </format>
   </formats>
-  <pivotHierarchies count="8">
+  <pivotHierarchies count="21">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
@@ -1304,8 +4418,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CEB05A1D-EF9F-4A36-AE67-F086245519DC}" name="Сводная таблица2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0600-000004000000}" name="Сводная таблица2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B2:C5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -1337,11 +4451,24 @@
     <dataField name="Число элементов в столбце Пол" fld="1" subtotal="count" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="9"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="4">
+    <format dxfId="0">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
-  <pivotHierarchies count="8">
+  <pivotHierarchies count="21">
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
+    <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
     <pivotHierarchy dragToData="1"/>
@@ -1372,40 +4499,41 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9B7C5EAD-C77A-453B-8729-D544945FA04D}" name="Список" displayName="Список" ref="B4:Q32" totalsRowCount="1" totalsRowBorderDxfId="24">
-  <autoFilter ref="B4:Q31" xr:uid="{9B7C5EAD-C77A-453B-8729-D544945FA04D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Список" displayName="Список" ref="B4:R32" totalsRowCount="1" totalsRowBorderDxfId="25">
+  <autoFilter ref="B4:R31" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:P31">
     <sortCondition ref="B4:B31"/>
   </sortState>
-  <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{CE2CA560-4CF7-4157-8882-A770E6F54813}" name="№" totalsRowLabel="ЛР1"/>
-    <tableColumn id="2" xr3:uid="{C1941E99-226E-43B6-B6BB-9B3A537694E0}" name="Фамилия, имя"/>
-    <tableColumn id="3" xr3:uid="{2E436586-13AA-45AD-BC3D-006EB580B1D0}" name="Имя"/>
-    <tableColumn id="4" xr3:uid="{0B7FD963-7740-4607-8E86-605CE7E8BDC3}" name="Пол"/>
-    <tableColumn id="9" xr3:uid="{E34E81CE-4B9B-4520-82FB-9E0BA2366445}" name="Вар. ЛР" totalsRowFunction="countNums"/>
-    <tableColumn id="5" xr3:uid="{C3618D91-470F-4237-82D5-D447C63A7BC3}" name="08.сен" totalsRowDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{0DD2E78C-77D9-47C1-890E-3CDE71AA5FAD}" name="22.сен" totalsRowFunction="countNums" totalsRowDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{2079D85D-3BD1-47FE-8933-A645EBC5E6AD}" name="06.окт" totalsRowFunction="countNums"/>
-    <tableColumn id="8" xr3:uid="{12643796-0682-4F39-8A78-84C865399C4A}" name="20.окт" totalsRowFunction="custom" totalsRowDxfId="1">
+  <tableColumns count="17">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" totalsRowLabel="ЛР1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Фамилия, имя"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Имя"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Пол"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Вар. ЛР" totalsRowFunction="countNums"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="08.сен" totalsRowDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="22.сен" totalsRowFunction="countNums" totalsRowDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="06.окт" totalsRowFunction="countNums"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="20.окт" totalsRowFunction="custom" totalsRowDxfId="22">
       <totalsRowFormula>COUNTIF(Список[20.окт],1)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{626486CF-73A5-48E7-BA3E-CE269B506857}" name="17.ноя" totalsRowFunction="custom">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="17.ноя" totalsRowFunction="custom">
       <totalsRowFormula>COUNTIF(Список[17.ноя],1)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{99AC48D9-7389-402F-B5E5-0F304A775C73}" name="01.дек" totalsRowFunction="custom">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="01.дек" totalsRowFunction="custom">
       <totalsRowFormula>COUNTIF(Список[01.дек],1)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{7C8748DF-CE82-445F-A3F3-C9DE70F2CE24}" name="15.дек" totalsRowFunction="custom">
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="15.дек" totalsRowFunction="custom">
       <totalsRowFormula>COUNTIF(Список[15.дек],1)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{64148C1D-6E39-4F50-9C4F-1BA0C1DDA94E}" name="22.дек" totalsRowFunction="custom">
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="22.дек" totalsRowFunction="custom">
       <totalsRowFormula>COUNTIF(Список[22.дек],1)</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{EF65407D-70E6-407C-93A8-9D7882B0D503}" name="Встреч">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Встреч">
       <calculatedColumnFormula>COUNTA(Список[[#This Row],[08.сен]:[22.дек]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{508E45F3-744E-4ED9-8C66-595785AA8AAC}" name="27.окт" totalsRowFunction="countNums"/>
-    <tableColumn id="10" xr3:uid="{216834A9-3BC5-487C-A22B-36A2912E580F}" name="Баллы 1" totalsRowDxfId="0"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="27.окт" totalsRowFunction="countNums"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Баллы1" totalsRowDxfId="21"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="Баллы2" totalsRowDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1707,10 +4835,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C4107C6-A28E-45C7-88D2-DC3C81BFA4E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:F15"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1720,13 +4850,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
+      <c r="B1" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -1737,145 +4867,145 @@
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="29"/>
-      <c r="C4" s="36" t="s">
+      <c r="B4" s="20"/>
+      <c r="C4" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="26" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="22">
         <f>SUM(Список[[#Totals],[22.сен]:[22.дек]])</f>
         <v>22</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="22">
         <f>SUM(Список[[#Totals],[22.сен]:[06.окт]])</f>
         <v>14</v>
       </c>
-      <c r="E5" s="37">
+      <c r="E5" s="27">
         <f>C5-D5</f>
         <v>8</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="22">
         <f>$D$2-C5</f>
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="22">
         <f>SUM(Список!J33:N33)</f>
         <v>12</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="22">
         <f>SUM(Список!J33:K33)</f>
         <v>12</v>
       </c>
-      <c r="E6" s="37">
+      <c r="E6" s="27">
         <f>C6-D6</f>
         <v>0</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="22">
         <f>$D$2-C6</f>
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="22">
         <f>SUM(Список!K34:N34)</f>
         <v>2</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D7" s="22">
         <f>SUM(Список!K34:M34)</f>
         <v>2</v>
       </c>
-      <c r="E7" s="37">
+      <c r="E7" s="27">
         <f>C7-D7</f>
         <v>0</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="22">
         <f>$D$2-C7</f>
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8" s="22">
         <f>SUM(Список!K35:N35)</f>
         <v>0</v>
       </c>
-      <c r="D8" s="31">
+      <c r="D8" s="22">
         <f>SUM(Список!K35:N35)</f>
         <v>0</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8" s="27">
         <f>C8-D8</f>
         <v>0</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="22">
         <f>$D$2-C8</f>
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="45" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C11">
         <f>Список[[#Totals],[27.окт]]</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D11">
         <f>$D$2-C11</f>
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12">
+      <c r="B12" s="9">
         <v>5</v>
       </c>
       <c r="C12">
         <f>Список!P33</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13">
+      <c r="B13" s="9">
         <v>4</v>
       </c>
       <c r="C13">
         <f>Список!P34</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14">
+      <c r="B14" s="9">
         <v>3</v>
       </c>
       <c r="C14">
@@ -1884,7 +5014,7 @@
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="43" t="s">
         <v>91</v>
       </c>
       <c r="C15">
@@ -1898,258 +5028,935 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB7DDDD8-2CDE-442A-B5F7-25D4B75AD692}">
-  <dimension ref="B1:J12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B1:F30"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="5.42578125" customWidth="1"/>
-    <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
-    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" customWidth="1"/>
+    <col min="4" max="4" width="3.28515625" customWidth="1"/>
+    <col min="5" max="5" width="3" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
     <col min="10" max="10" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="39" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E2" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="43"/>
-      <c r="G2" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="H2" s="43"/>
-      <c r="I2" s="12" t="s">
+    <row r="1" spans="2:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="29" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="3" spans="2:10" ht="9" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="23" t="s">
+      <c r="F3" s="39" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="36">
+        <v>45</v>
+      </c>
+      <c r="D4" s="36">
+        <v>5</v>
+      </c>
+      <c r="F4" s="36">
+        <f>INT((C4-D4*3)/15)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="36">
+        <v>45</v>
+      </c>
+      <c r="D5" s="36">
+        <v>5</v>
+      </c>
+      <c r="F5" s="36">
+        <f t="shared" ref="F5:F30" si="0">INT((C5-D5*3)/15)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="36">
+        <v>45</v>
+      </c>
+      <c r="D6" s="36">
+        <v>5</v>
+      </c>
+      <c r="F6" s="36">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="36">
+        <v>45</v>
+      </c>
+      <c r="D7" s="36">
+        <v>5</v>
+      </c>
+      <c r="F7" s="36">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="36">
+        <v>45</v>
+      </c>
+      <c r="D8" s="36">
+        <v>5</v>
+      </c>
+      <c r="F8" s="36">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="36">
+        <v>44</v>
+      </c>
+      <c r="D9" s="36">
+        <v>4</v>
+      </c>
+      <c r="F9" s="36">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="36">
+        <v>43</v>
+      </c>
+      <c r="D10" s="36">
+        <v>4</v>
+      </c>
+      <c r="F10" s="36">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="36">
+        <v>43</v>
+      </c>
+      <c r="D11" s="36">
+        <v>4</v>
+      </c>
+      <c r="F11" s="36">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="36">
+        <v>42</v>
+      </c>
+      <c r="D12" s="36">
+        <v>4</v>
+      </c>
+      <c r="F12" s="36">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="36">
+        <v>39</v>
+      </c>
+      <c r="D13" s="36">
         <v>3</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="F13" s="36">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D4" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="H4" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="I4" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="J4" s="24" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="38">
+        <v>32</v>
+      </c>
+      <c r="D14" s="38">
+        <v>4</v>
+      </c>
+      <c r="F14" s="38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="38">
+        <v>30</v>
+      </c>
+      <c r="D15" s="38"/>
+      <c r="F15" s="38">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="38">
+        <v>30</v>
+      </c>
+      <c r="D16" s="38">
+        <v>5</v>
+      </c>
+      <c r="F16" s="38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="38">
+        <v>30</v>
+      </c>
+      <c r="D17" s="38"/>
+      <c r="F17" s="38">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="38">
+        <v>29</v>
+      </c>
+      <c r="D18" s="38">
+        <v>3</v>
+      </c>
+      <c r="F18" s="38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="38">
+        <v>27</v>
+      </c>
+      <c r="D19" s="38">
+        <v>4</v>
+      </c>
+      <c r="F19" s="38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="38">
+        <v>27</v>
+      </c>
+      <c r="D20" s="38">
+        <v>4</v>
+      </c>
+      <c r="F20" s="38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="38">
+        <v>24</v>
+      </c>
+      <c r="D21" s="38">
+        <v>4</v>
+      </c>
+      <c r="F21" s="38">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D5" s="2">
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="12">
+        <v>15</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="F22" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="12">
+        <v>15</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="F23" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="12">
+        <v>15</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="F24" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="12">
+        <v>15</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="F25" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="12">
+        <v>15</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="F26" s="12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="34">
+        <v>7</v>
+      </c>
+      <c r="D27" s="34"/>
+      <c r="F27" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="34">
+        <v>4</v>
+      </c>
+      <c r="D28" s="34"/>
+      <c r="F28" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="33">
+        <v>0</v>
+      </c>
+      <c r="D29" s="33"/>
+      <c r="F29" s="33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B1:G30"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8.140625" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.28515625" customWidth="1"/>
+    <col min="6" max="6" width="3.7109375" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="39" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="20">
+        <v>1</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="54">
+        <v>32</v>
+      </c>
+      <c r="E4" s="56">
+        <v>4</v>
+      </c>
+      <c r="F4" s="54"/>
+      <c r="G4" s="56">
+        <f>INT((D4-E4*3)/15)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="20"/>
+      <c r="C5" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="54">
+        <v>29</v>
+      </c>
+      <c r="E5" s="56">
+        <v>3</v>
+      </c>
+      <c r="F5" s="54"/>
+      <c r="G5" s="56">
+        <f t="shared" ref="G5:G30" si="0">INT((D5-E5*3)/15)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="20">
+        <v>2</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="54">
+        <v>30</v>
+      </c>
+      <c r="E6" s="56">
+        <v>5</v>
+      </c>
+      <c r="F6" s="54"/>
+      <c r="G6" s="56">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="20"/>
+      <c r="C7" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="54">
+        <v>27</v>
+      </c>
+      <c r="E7" s="56">
+        <v>4</v>
+      </c>
+      <c r="F7" s="54"/>
+      <c r="G7" s="56">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="20">
+        <v>3</v>
+      </c>
+      <c r="C8" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="54">
+        <v>45</v>
+      </c>
+      <c r="E8" s="56">
+        <v>5</v>
+      </c>
+      <c r="F8" s="54"/>
+      <c r="G8" s="56">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="20"/>
+      <c r="C9" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="54">
+        <v>45</v>
+      </c>
+      <c r="E9" s="56">
+        <v>5</v>
+      </c>
+      <c r="F9" s="54"/>
+      <c r="G9" s="56">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="20">
+        <v>4</v>
+      </c>
+      <c r="C10" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="54">
+        <v>42</v>
+      </c>
+      <c r="E10" s="56">
+        <v>4</v>
+      </c>
+      <c r="F10" s="54"/>
+      <c r="G10" s="56">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="20"/>
+      <c r="C11" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="54">
+        <v>39</v>
+      </c>
+      <c r="E11" s="56">
+        <v>3</v>
+      </c>
+      <c r="F11" s="54"/>
+      <c r="G11" s="56">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="20">
+        <v>6</v>
+      </c>
+      <c r="C12" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="54">
+        <v>43</v>
+      </c>
+      <c r="E12" s="56">
+        <v>4</v>
+      </c>
+      <c r="F12" s="54"/>
+      <c r="G12" s="56">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="20"/>
+      <c r="C13" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="54">
+        <v>43</v>
+      </c>
+      <c r="E13" s="56">
+        <v>4</v>
+      </c>
+      <c r="F13" s="54"/>
+      <c r="G13" s="56">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="20">
+        <v>7</v>
+      </c>
+      <c r="C14" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="54">
+        <v>24</v>
+      </c>
+      <c r="E14" s="56">
+        <v>4</v>
+      </c>
+      <c r="F14" s="54"/>
+      <c r="G14" s="56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="20"/>
+      <c r="C15" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="54">
+        <v>7</v>
+      </c>
+      <c r="E15" s="56"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="20">
+        <v>8</v>
+      </c>
+      <c r="C16" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="54">
+        <v>15</v>
+      </c>
+      <c r="E16" s="56"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="56">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="20"/>
+      <c r="C17" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="54">
+        <v>15</v>
+      </c>
+      <c r="E17" s="56"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="56">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="20">
+        <v>9</v>
+      </c>
+      <c r="C18" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="54">
+        <v>45</v>
+      </c>
+      <c r="E18" s="56">
+        <v>5</v>
+      </c>
+      <c r="F18" s="54"/>
+      <c r="G18" s="56">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="20"/>
+      <c r="C19" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="54">
+        <v>30</v>
+      </c>
+      <c r="E19" s="56"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="56">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="20">
         <v>11</v>
       </c>
-      <c r="E5" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="3">
+      <c r="C20" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="54">
+        <v>4</v>
+      </c>
+      <c r="E20" s="56"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="20"/>
+      <c r="C21" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="54"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="20">
+        <v>15</v>
+      </c>
+      <c r="C22" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="54">
+        <v>45</v>
+      </c>
+      <c r="E22" s="56">
+        <v>5</v>
+      </c>
+      <c r="F22" s="54"/>
+      <c r="G22" s="56">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="1">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="20"/>
+      <c r="C23" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="54">
+        <v>30</v>
+      </c>
+      <c r="E23" s="56"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="56">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2">
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="20">
+        <v>17</v>
+      </c>
+      <c r="C24" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="54">
+        <v>44</v>
+      </c>
+      <c r="E24" s="56">
+        <v>4</v>
+      </c>
+      <c r="F24" s="54"/>
+      <c r="G24" s="56">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="20">
+        <v>18</v>
+      </c>
+      <c r="C25" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="54">
+        <v>15</v>
+      </c>
+      <c r="E25" s="56"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="56">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="20"/>
+      <c r="C26" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="54">
+        <v>15</v>
+      </c>
+      <c r="E26" s="56"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="56">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="20">
+        <v>21</v>
+      </c>
+      <c r="C27" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="54">
+        <v>27</v>
+      </c>
+      <c r="E27" s="56">
+        <v>4</v>
+      </c>
+      <c r="F27" s="54"/>
+      <c r="G27" s="56">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="20"/>
+      <c r="C28" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="54">
+        <v>15</v>
+      </c>
+      <c r="E28" s="56"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="56">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="1">
-        <v>7</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="2">
-        <v>4</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="2">
-        <v>3</v>
-      </c>
-      <c r="J7" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="1">
-        <v>9</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="D29" s="54">
+        <v>45</v>
+      </c>
+      <c r="E29" s="56">
+        <v>5</v>
+      </c>
+      <c r="F29" s="54"/>
+      <c r="G29" s="56">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="3">
+      <c r="D30" s="54">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="1">
-        <v>12</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="2">
-        <v>7</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="H9" s="20"/>
-      <c r="I9" s="2">
-        <v>4</v>
-      </c>
-      <c r="J9" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="1">
-        <v>19</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="2">
-        <v>4</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="H10" s="20"/>
-      <c r="I10" s="2">
-        <v>4</v>
-      </c>
-      <c r="J10" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="1">
-        <v>24</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="2">
-        <v>7</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="H11" s="20"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C12">
-        <f>COUNTA(C5:C11)</f>
-        <v>7</v>
+      <c r="E30" s="56"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="56">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-  </mergeCells>
-  <conditionalFormatting sqref="I5:I11">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1647FB63-1F4F-4E19-9E4E-E5D332B0A7A4}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J5:J11">
+  <conditionalFormatting pivot="1" sqref="D4:D30">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -2162,379 +5969,483 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1647FB63-1F4F-4E19-9E4E-E5D332B0A7A4}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>I5:I11</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{748ECE84-934A-41A2-A516-5CF18C8AC636}">
-  <dimension ref="B1:J15"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="B1:F30"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="22.5703125" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" customWidth="1"/>
+    <col min="4" max="4" width="3.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="39" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E2" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="43"/>
-      <c r="G2" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="H2" s="43"/>
-      <c r="I2" s="12" t="s">
+    <row r="1" spans="2:6" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:6" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="3" spans="2:10" ht="8.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="23" t="s">
+      <c r="E3" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="54">
+        <v>45</v>
+      </c>
+      <c r="D4" s="56">
+        <v>5</v>
+      </c>
+      <c r="E4" s="56">
+        <f>INT((C4-D4*3)/15)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="54">
+        <v>45</v>
+      </c>
+      <c r="D5" s="56">
+        <v>5</v>
+      </c>
+      <c r="E5" s="56">
+        <f t="shared" ref="E5:E30" si="0">INT((C5-D5*3)/15)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="54">
+        <v>45</v>
+      </c>
+      <c r="D6" s="56">
+        <v>5</v>
+      </c>
+      <c r="E6" s="56">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="54">
+        <v>45</v>
+      </c>
+      <c r="D7" s="56">
+        <v>5</v>
+      </c>
+      <c r="E7" s="56">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="54">
+        <v>45</v>
+      </c>
+      <c r="D8" s="56">
+        <v>5</v>
+      </c>
+      <c r="E8" s="56">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="54">
+        <v>44</v>
+      </c>
+      <c r="D9" s="56">
+        <v>4</v>
+      </c>
+      <c r="E9" s="56">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="54">
+        <v>43</v>
+      </c>
+      <c r="D10" s="56">
+        <v>4</v>
+      </c>
+      <c r="E10" s="56">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="54">
+        <v>43</v>
+      </c>
+      <c r="D11" s="56">
+        <v>4</v>
+      </c>
+      <c r="E11" s="56">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="54">
+        <v>42</v>
+      </c>
+      <c r="D12" s="56">
+        <v>4</v>
+      </c>
+      <c r="E12" s="56">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="54">
+        <v>39</v>
+      </c>
+      <c r="D13" s="56">
         <v>3</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="E13" s="56">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D4" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="H4" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="I4" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="J4" s="24" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="1">
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="54">
+        <v>32</v>
+      </c>
+      <c r="D14" s="56">
+        <v>4</v>
+      </c>
+      <c r="E14" s="56">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="54">
+        <v>30</v>
+      </c>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="54">
+        <v>30</v>
+      </c>
+      <c r="D16" s="56">
+        <v>5</v>
+      </c>
+      <c r="E16" s="56">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="54">
+        <v>30</v>
+      </c>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="54">
+        <v>29</v>
+      </c>
+      <c r="D18" s="56">
         <v>3</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="E18" s="56">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="54">
+        <v>27</v>
+      </c>
+      <c r="D19" s="56">
         <v>4</v>
       </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="G5" s="19">
-        <v>1</v>
-      </c>
-      <c r="H5" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="I5" s="2">
-        <v>3</v>
-      </c>
-      <c r="J5" s="3">
+      <c r="E19" s="56">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="54">
+        <v>27</v>
+      </c>
+      <c r="D20" s="56">
+        <v>4</v>
+      </c>
+      <c r="E20" s="56">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="54">
+        <v>24</v>
+      </c>
+      <c r="D21" s="56">
+        <v>4</v>
+      </c>
+      <c r="E21" s="56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="54">
+        <v>15</v>
+      </c>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="52" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="1">
+      <c r="C23" s="54">
+        <v>15</v>
+      </c>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="54">
+        <v>15</v>
+      </c>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="54">
+        <v>15</v>
+      </c>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="54">
+        <v>15</v>
+      </c>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="54">
+        <v>7</v>
+      </c>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="54">
         <v>4</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="2">
-        <v>18</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="26">
-        <v>1</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="1">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="2">
-        <v>2</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="26">
-        <v>1</v>
-      </c>
-      <c r="I7" s="2">
-        <v>4</v>
-      </c>
-      <c r="J7" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="1">
-        <v>14</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="2">
-        <v>18</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="26">
-        <v>1</v>
-      </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="1">
-        <v>15</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="2">
-        <v>8</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="26">
-        <v>1</v>
-      </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="1">
-        <v>16</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="2">
-        <v>8</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="26">
-        <v>1</v>
-      </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="1">
-        <v>21</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="2">
-        <v>21</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="H11" s="26">
-        <v>1</v>
-      </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="1">
-        <v>22</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="2">
-        <v>2</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="26">
-        <v>1</v>
-      </c>
-      <c r="I12" s="2">
-        <v>5</v>
-      </c>
-      <c r="J12" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="1">
-        <v>23</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="2">
-        <v>21</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="H13" s="26">
-        <v>1</v>
-      </c>
-      <c r="I13" s="2">
-        <v>4</v>
-      </c>
-      <c r="J13" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="1">
-        <v>27</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="19">
-        <v>1</v>
-      </c>
-      <c r="H14" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="I14" s="2">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C15">
-        <f>COUNTA(C5:C14)</f>
-        <v>10</v>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="54">
+        <v>0</v>
+      </c>
+      <c r="D29" s="56"/>
+      <c r="E29" s="56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="58"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-  </mergeCells>
-  <conditionalFormatting sqref="I5:I14">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{FF8E8B48-1AB9-4911-8A72-8F2129490C7B}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J5:J14">
-    <cfRule type="colorScale" priority="1">
+  <autoFilter ref="E3:E30" xr:uid="{00000000-0009-0000-0000-000003000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="0"/>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:D30">
+    <sortCondition ref="C3"/>
+  </sortState>
+  <conditionalFormatting pivot="1" sqref="C4:C30">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2546,35 +6457,16 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{FF8E8B48-1AB9-4911-8A72-8F2129490C7B}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>I5:I14</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-  </extLst>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24C63C8B-AD0A-4AF6-ADB3-C3544067CA87}">
-  <dimension ref="B1:Q36"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="B1:R36"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="17" ySplit="4" topLeftCell="R10" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R1" sqref="R1"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Q4" sqref="Q4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2589,36 +6481,38 @@
     <col min="11" max="14" width="9.140625" customWidth="1"/>
     <col min="15" max="15" width="12.42578125" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" customWidth="1"/>
+    <col min="17" max="17" width="10.28515625" customWidth="1"/>
+    <col min="18" max="18" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="38" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="2:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G2" s="43" t="s">
+    <row r="1" spans="2:18" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="2:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="H2" s="43"/>
-      <c r="I2" s="44" t="s">
+      <c r="H2" s="60"/>
+      <c r="I2" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="J2" s="43"/>
-      <c r="K2" s="45" t="s">
+      <c r="J2" s="60"/>
+      <c r="K2" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="L2" s="46"/>
-      <c r="M2" s="44" t="s">
+      <c r="L2" s="63"/>
+      <c r="M2" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="N2" s="43"/>
-      <c r="P2" s="12" t="s">
+      <c r="N2" s="60"/>
+      <c r="P2" s="10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="2:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:18" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -2634,41 +6528,44 @@
       <c r="F4" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="M4" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="N4" s="8" t="s">
         <v>73</v>
       </c>
       <c r="O4" t="s">
         <v>79</v>
       </c>
-      <c r="P4" s="30" t="s">
+      <c r="P4" s="21" t="s">
         <v>66</v>
       </c>
       <c r="Q4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="R4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>1</v>
       </c>
@@ -2684,26 +6581,26 @@
       <c r="F5">
         <v>11</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="J5" s="14"/>
+      <c r="J5" s="12"/>
       <c r="O5">
         <f>COUNTA(Список[[#This Row],[08.сен]:[22.дек]])</f>
         <v>2</v>
       </c>
       <c r="Q5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="31" t="s">
         <v>1</v>
       </c>
       <c r="D6" t="s">
@@ -2715,16 +6612,16 @@
       <c r="F6">
         <v>11</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="J6" s="14"/>
+      <c r="J6" s="12"/>
       <c r="O6">
         <f>COUNTA(Список[[#This Row],[08.сен]:[22.дек]])</f>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>3</v>
       </c>
@@ -2740,16 +6637,16 @@
       <c r="F7">
         <v>1</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="I7" s="28">
-        <v>1</v>
-      </c>
-      <c r="J7" s="17" t="s">
+      <c r="I7" s="19">
+        <v>1</v>
+      </c>
+      <c r="J7" s="15" t="s">
         <v>78</v>
       </c>
       <c r="O7">
@@ -2760,10 +6657,10 @@
         <v>3</v>
       </c>
       <c r="Q7">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>4</v>
       </c>
@@ -2779,13 +6676,13 @@
       <c r="F8">
         <v>18</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J8" s="16">
         <v>1</v>
       </c>
       <c r="O8">
@@ -2796,7 +6693,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>5</v>
       </c>
@@ -2812,13 +6709,13 @@
       <c r="F9">
         <v>2</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="J9" s="18">
+      <c r="J9" s="16">
         <v>1</v>
       </c>
       <c r="O9">
@@ -2832,7 +6729,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>6</v>
       </c>
@@ -2848,18 +6745,21 @@
       <c r="F10">
         <v>3</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="H10" s="27">
-        <v>1</v>
-      </c>
-      <c r="J10" s="28">
+      <c r="H10" s="18">
+        <v>1</v>
+      </c>
+      <c r="J10" s="19">
         <v>2</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="9">
         <v>3</v>
       </c>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
       <c r="O10">
         <f>COUNTA(Список[[#This Row],[08.сен]:[22.дек]])</f>
         <v>4</v>
@@ -2870,8 +6770,11 @@
       <c r="Q10">
         <v>45</v>
       </c>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>7</v>
       </c>
@@ -2887,19 +6790,22 @@
       <c r="F11">
         <v>4</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="I11" s="16">
-        <v>1</v>
-      </c>
-      <c r="J11" s="14"/>
-      <c r="K11" s="16">
+      <c r="I11" s="14">
+        <v>1</v>
+      </c>
+      <c r="J11" s="12"/>
+      <c r="K11" s="14">
         <v>2</v>
       </c>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
       <c r="O11">
         <f>COUNTA(Список[[#This Row],[08.сен]:[22.дек]])</f>
         <v>4</v>
@@ -2911,7 +6817,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>8</v>
       </c>
@@ -2927,18 +6833,22 @@
       <c r="F12">
         <v>15</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="H12" s="27">
-        <v>1</v>
-      </c>
-      <c r="I12" s="16" t="s">
+      <c r="H12" s="18">
+        <v>1</v>
+      </c>
+      <c r="I12" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="J12" s="28">
+      <c r="J12" s="19">
         <v>2</v>
       </c>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
       <c r="O12">
         <f>COUNTA(Список[[#This Row],[08.сен]:[22.дек]])</f>
         <v>4</v>
@@ -2950,7 +6860,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>9</v>
       </c>
@@ -2963,9 +6873,13 @@
       <c r="E13" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="11"/>
-      <c r="J13" s="14"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="9"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
       <c r="O13">
         <f>COUNTA(Список[[#This Row],[08.сен]:[22.дек]])</f>
         <v>0</v>
@@ -2974,7 +6888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>10</v>
       </c>
@@ -2990,15 +6904,19 @@
       <c r="F14">
         <v>6</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="I14" s="28">
-        <v>1</v>
-      </c>
-      <c r="J14" s="28">
+      <c r="I14" s="19">
+        <v>1</v>
+      </c>
+      <c r="J14" s="19">
         <v>2</v>
       </c>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
       <c r="O14">
         <f>COUNTA(Список[[#This Row],[08.сен]:[22.дек]])</f>
         <v>3</v>
@@ -3010,7 +6928,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>11</v>
       </c>
@@ -3023,16 +6941,20 @@
       <c r="E15" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="G15" s="11"/>
-      <c r="I15" s="28">
-        <v>1</v>
-      </c>
-      <c r="J15" s="28">
+      <c r="G15" s="9"/>
+      <c r="I15" s="19">
+        <v>1</v>
+      </c>
+      <c r="J15" s="19">
         <v>2</v>
       </c>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
       <c r="O15">
         <f>COUNTA(Список[[#This Row],[08.сен]:[22.дек]])</f>
         <v>2</v>
@@ -3044,11 +6966,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>12</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D16" t="s">
@@ -3060,16 +6982,20 @@
       <c r="F16">
         <v>7</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="H16" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="I16" s="16" t="s">
+      <c r="I16" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="J16" s="14"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
       <c r="O16">
         <f>COUNTA(Список[[#This Row],[08.сен]:[22.дек]])</f>
         <v>3</v>
@@ -3078,10 +7004,10 @@
         <v>4</v>
       </c>
       <c r="Q16">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>13</v>
       </c>
@@ -3097,18 +7023,22 @@
       <c r="F17">
         <v>6</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="H17" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="I17" s="28">
-        <v>1</v>
-      </c>
-      <c r="J17" s="28">
+      <c r="I17" s="19">
+        <v>1</v>
+      </c>
+      <c r="J17" s="19">
         <v>2</v>
       </c>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
       <c r="O17">
         <f>COUNTA(Список[[#This Row],[08.сен]:[22.дек]])</f>
         <v>4</v>
@@ -3120,7 +7050,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>14</v>
       </c>
@@ -3136,15 +7066,19 @@
       <c r="F18">
         <v>18</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="H18" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="J18" s="18">
-        <v>1</v>
-      </c>
+      <c r="J18" s="16">
+        <v>1</v>
+      </c>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
       <c r="O18">
         <f>COUNTA(Список[[#This Row],[08.сен]:[22.дек]])</f>
         <v>3</v>
@@ -3153,7 +7087,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>15</v>
       </c>
@@ -3169,15 +7103,19 @@
       <c r="F19">
         <v>8</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="H19" s="11" t="s">
+      <c r="H19" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="J19" s="18">
-        <v>1</v>
-      </c>
+      <c r="J19" s="16">
+        <v>1</v>
+      </c>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
       <c r="O19">
         <f>COUNTA(Список[[#This Row],[08.сен]:[22.дек]])</f>
         <v>3</v>
@@ -3186,7 +7124,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>16</v>
       </c>
@@ -3202,15 +7140,19 @@
       <c r="F20">
         <v>8</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="H20" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="J20" s="18">
-        <v>1</v>
-      </c>
+      <c r="J20" s="16">
+        <v>1</v>
+      </c>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
       <c r="O20">
         <f>COUNTA(Список[[#This Row],[08.сен]:[22.дек]])</f>
         <v>3</v>
@@ -3219,7 +7161,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>17</v>
       </c>
@@ -3235,18 +7177,22 @@
       <c r="F21">
         <v>9</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="H21" s="11" t="s">
+      <c r="H21" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="I21" s="28">
-        <v>1</v>
-      </c>
-      <c r="J21" s="28">
+      <c r="I21" s="19">
+        <v>1</v>
+      </c>
+      <c r="J21" s="19">
         <v>2</v>
       </c>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
       <c r="O21">
         <f>COUNTA(Список[[#This Row],[08.сен]:[22.дек]])</f>
         <v>4</v>
@@ -3255,7 +7201,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>18</v>
       </c>
@@ -3271,30 +7217,36 @@
       <c r="F22">
         <v>17</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="G22" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="H22" s="16" t="s">
+      <c r="H22" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="I22" s="28">
-        <v>1</v>
-      </c>
-      <c r="J22" s="28">
+      <c r="I22" s="19">
+        <v>1</v>
+      </c>
+      <c r="J22" s="19">
         <v>2</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" s="9" t="s">
         <v>77</v>
       </c>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
       <c r="O22">
         <f>COUNTA(Список[[#This Row],[08.сен]:[22.дек]])</f>
         <v>5</v>
       </c>
+      <c r="P22">
+        <v>4</v>
+      </c>
       <c r="Q22">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>19</v>
       </c>
@@ -3310,19 +7262,22 @@
       <c r="F23">
         <v>4</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G23" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="H23" s="16" t="s">
+      <c r="H23" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="I23" s="16">
-        <v>1</v>
-      </c>
-      <c r="J23" s="14"/>
-      <c r="K23">
+      <c r="I23" s="14">
+        <v>1</v>
+      </c>
+      <c r="J23" s="12"/>
+      <c r="K23" s="9">
         <v>2</v>
       </c>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
       <c r="O23">
         <f>COUNTA(Список[[#This Row],[08.сен]:[22.дек]])</f>
         <v>4</v>
@@ -3334,7 +7289,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>20</v>
       </c>
@@ -3350,27 +7305,34 @@
       <c r="F24">
         <v>9</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="G24" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="H24" s="11" t="s">
+      <c r="H24" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="I24" s="28">
-        <v>1</v>
-      </c>
-      <c r="J24" s="28">
+      <c r="I24" s="19">
+        <v>1</v>
+      </c>
+      <c r="J24" s="19">
         <v>2</v>
       </c>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
       <c r="O24">
         <f>COUNTA(Список[[#This Row],[08.сен]:[22.дек]])</f>
         <v>4</v>
       </c>
+      <c r="P24">
+        <v>5</v>
+      </c>
       <c r="Q24">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>21</v>
       </c>
@@ -3386,18 +7348,22 @@
       <c r="F25">
         <v>21</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="G25" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="H25" s="11" t="s">
+      <c r="H25" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="I25" s="16" t="s">
+      <c r="I25" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="J25" s="18">
-        <v>1</v>
-      </c>
+      <c r="J25" s="16">
+        <v>1</v>
+      </c>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
       <c r="O25">
         <f>COUNTA(Список[[#This Row],[08.сен]:[22.дек]])</f>
         <v>4</v>
@@ -3406,7 +7372,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>22</v>
       </c>
@@ -3422,15 +7388,19 @@
       <c r="F26">
         <v>2</v>
       </c>
-      <c r="G26" s="11" t="s">
+      <c r="G26" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="H26" s="16" t="s">
+      <c r="H26" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="J26" s="18">
-        <v>1</v>
-      </c>
+      <c r="J26" s="16">
+        <v>1</v>
+      </c>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
       <c r="O26">
         <f>COUNTA(Список[[#This Row],[08.сен]:[22.дек]])</f>
         <v>3</v>
@@ -3442,7 +7412,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>23</v>
       </c>
@@ -3458,22 +7428,26 @@
       <c r="F27">
         <v>7</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="G27" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="I27" s="16" t="s">
+      <c r="I27" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="J27" s="14"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
       <c r="O27">
         <f>COUNTA(Список[[#This Row],[08.сен]:[22.дек]])</f>
         <v>2</v>
       </c>
       <c r="Q27">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>24</v>
       </c>
@@ -3489,15 +7463,19 @@
       <c r="F28">
         <v>21</v>
       </c>
-      <c r="G28" s="11" t="s">
+      <c r="G28" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="I28" s="16" t="s">
+      <c r="I28" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="J28" s="18">
-        <v>1</v>
-      </c>
+      <c r="J28" s="16">
+        <v>1</v>
+      </c>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
       <c r="O28">
         <f>COUNTA(Список[[#This Row],[08.сен]:[22.дек]])</f>
         <v>3</v>
@@ -3509,7 +7487,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>25</v>
       </c>
@@ -3525,15 +7503,19 @@
       <c r="F29">
         <v>15</v>
       </c>
-      <c r="G29" s="11" t="s">
+      <c r="G29" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="H29" s="28">
-        <v>1</v>
-      </c>
-      <c r="J29" s="28">
+      <c r="H29" s="19">
+        <v>1</v>
+      </c>
+      <c r="J29" s="19">
         <v>2</v>
       </c>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
       <c r="O29">
         <f>COUNTA(Список[[#This Row],[08.сен]:[22.дек]])</f>
         <v>3</v>
@@ -3542,7 +7524,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>26</v>
       </c>
@@ -3558,18 +7540,21 @@
       <c r="F30">
         <v>3</v>
       </c>
-      <c r="G30" s="11" t="s">
+      <c r="G30" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="H30" s="28">
-        <v>1</v>
-      </c>
-      <c r="J30" s="28">
+      <c r="H30" s="19">
+        <v>1</v>
+      </c>
+      <c r="J30" s="19">
         <v>2</v>
       </c>
-      <c r="K30" s="11">
+      <c r="K30" s="9">
         <v>3</v>
       </c>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
       <c r="O30">
         <f>COUNTA(Список[[#This Row],[08.сен]:[22.дек]])</f>
         <v>4</v>
@@ -3580,8 +7565,11 @@
       <c r="Q30">
         <v>45</v>
       </c>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>27</v>
       </c>
@@ -3597,18 +7585,22 @@
       <c r="F31">
         <v>1</v>
       </c>
-      <c r="G31" s="11" t="s">
+      <c r="G31" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="H31" s="16" t="s">
+      <c r="H31" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="I31" s="28">
-        <v>1</v>
-      </c>
-      <c r="J31" s="17" t="s">
+      <c r="I31" s="19">
+        <v>1</v>
+      </c>
+      <c r="J31" s="15" t="s">
         <v>78</v>
       </c>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
       <c r="O31">
         <f>COUNTA(Список[[#This Row],[08.сен]:[22.дек]])</f>
         <v>4</v>
@@ -3617,10 +7609,10 @@
         <v>4</v>
       </c>
       <c r="Q31">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>83</v>
       </c>
@@ -3628,8 +7620,8 @@
         <f>SUBTOTAL(102,Список[Вар. ЛР])</f>
         <v>25</v>
       </c>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11">
+      <c r="G32" s="9"/>
+      <c r="H32" s="9">
         <f>SUBTOTAL(102,Список[22.сен])</f>
         <v>4</v>
       </c>
@@ -3637,7 +7629,7 @@
         <f>SUBTOTAL(102,Список[06.окт])</f>
         <v>10</v>
       </c>
-      <c r="J32" s="11">
+      <c r="J32" s="9">
         <f>COUNTIF(Список[20.окт],1)</f>
         <v>8</v>
       </c>
@@ -3659,109 +7651,110 @@
       </c>
       <c r="P32">
         <f>SUBTOTAL(102,Список[27.окт])</f>
-        <v>14</v>
-      </c>
-      <c r="Q32" s="42"/>
+        <v>16</v>
+      </c>
+      <c r="Q32" s="32"/>
+      <c r="R32" s="32"/>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="33">
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="24">
         <f>COUNTIF(Список[20.окт],2)</f>
         <v>10</v>
       </c>
-      <c r="K33" s="13">
+      <c r="K33" s="11">
         <f>COUNTIF(Список[17.ноя],2)</f>
         <v>2</v>
       </c>
-      <c r="L33" s="13">
+      <c r="L33" s="11">
         <f>COUNTIF(Список[01.дек],2)</f>
         <v>0</v>
       </c>
-      <c r="M33" s="13">
+      <c r="M33" s="11">
         <f>COUNTIF(Список[15.дек],2)</f>
         <v>0</v>
       </c>
-      <c r="N33" s="13">
+      <c r="N33" s="11">
         <f>COUNTIF(Список[22.дек],2)</f>
         <v>0</v>
       </c>
       <c r="P33">
         <f>COUNTIF(Список[27.окт],5)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22">
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17">
         <f>COUNTIF(Список[17.ноя],3)</f>
         <v>2</v>
       </c>
-      <c r="L34" s="22">
+      <c r="L34" s="17">
         <f>COUNTIF(Список[01.дек],3)</f>
         <v>0</v>
       </c>
-      <c r="M34" s="22">
+      <c r="M34" s="17">
         <f>COUNTIF(Список[15.дек],3)</f>
         <v>0</v>
       </c>
-      <c r="N34" s="22">
+      <c r="N34" s="17">
         <f>COUNTIF(Список[22.дек],3)</f>
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
+      <c r="O34" s="1"/>
       <c r="P34">
         <f>COUNTIF(Список[27.окт],4)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="22">
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17">
         <f>COUNTIF(Список[17.ноя],4)</f>
         <v>0</v>
       </c>
-      <c r="L35" s="22">
+      <c r="L35" s="17">
         <f>COUNTIF(Список[01.дек],4)</f>
         <v>0</v>
       </c>
-      <c r="M35" s="22">
+      <c r="M35" s="17">
         <f>COUNTIF(Список[15.дек],4)</f>
         <v>0</v>
       </c>
-      <c r="N35" s="22">
+      <c r="N35" s="17">
         <f>COUNTIF(Список[22.дек],4)</f>
         <v>0</v>
       </c>
-      <c r="O35" s="3"/>
+      <c r="O35" s="1"/>
       <c r="P35">
         <f>COUNTIF(Список[27.окт],3)</f>
         <v>2</v>
@@ -3855,8 +7848,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4F16E48-993F-46D9-86D5-42FACD99EDFF}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A3:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3872,7 +7865,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B3" t="s">
@@ -3889,7 +7882,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B4">
@@ -3906,7 +7899,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B5">
@@ -3914,7 +7907,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B6">
@@ -3922,7 +7915,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>39</v>
       </c>
       <c r="B7">
@@ -3930,7 +7923,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B8">
@@ -3938,7 +7931,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B9">
@@ -3955,7 +7948,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="7" t="s">
         <v>44</v>
       </c>
       <c r="B10">
@@ -3963,7 +7956,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="4" t="s">
         <v>43</v>
       </c>
       <c r="B11">
@@ -3971,7 +7964,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="7" t="s">
         <v>38</v>
       </c>
       <c r="B12">
@@ -3979,7 +7972,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B13">
@@ -3996,7 +7989,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B14">
@@ -4004,7 +7997,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B15">
@@ -4012,7 +8005,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B16">
@@ -4020,7 +8013,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B17">
@@ -4028,7 +8021,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B18">
@@ -4045,7 +8038,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="4" t="s">
         <v>47</v>
       </c>
       <c r="B19">
@@ -4053,7 +8046,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B20">
@@ -4070,7 +8063,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="7" t="s">
         <v>48</v>
       </c>
       <c r="B21">
@@ -4078,7 +8071,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="7" t="s">
         <v>49</v>
       </c>
       <c r="B22">
@@ -4086,7 +8079,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B23">
@@ -4103,7 +8096,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B24">
@@ -4111,7 +8104,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B25">
@@ -4123,8 +8116,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19EB8E9A-2D55-45C5-8714-39BA4D76FF50}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4138,7 +8131,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C2" t="s">
@@ -4146,26 +8139,26 @@
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="5">
         <v>0.59259259259259256</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="5">
         <v>0.40740740740740738</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="5">
         <v>1</v>
       </c>
     </row>
